--- a/salida/reportes_Grupo Carosa_valorizada.xlsx
+++ b/salida/reportes_Grupo Carosa_valorizada.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="302">
   <si>
     <t>ORDEN</t>
   </si>
@@ -157,195 +157,165 @@
     <t>NOR-CLAMIDA 5MG x100TAB</t>
   </si>
   <si>
-    <t>NOR-CLOVIR 5PORCIENTO CRE</t>
-  </si>
-  <si>
     <t>NOR-CREZINC 10mg JBE SC</t>
   </si>
   <si>
     <t>NOR-GLUCOX 850MG x30TAB</t>
   </si>
   <si>
-    <t>NOR-KEDY JBE</t>
-  </si>
-  <si>
     <t>NOR-LIPOX 20 MG RECUB</t>
   </si>
   <si>
-    <t>NOR-SILIUM 10 MG</t>
-  </si>
-  <si>
     <t>NOR-TIAZIDA 25MG x30TAB</t>
   </si>
   <si>
     <t>NOR-TRIPAR 100MG PPS x60ML</t>
   </si>
   <si>
-    <t>NOR-TRIPAR 100MG PPS x30ML</t>
+    <t>NOR-TRYPTOL 25MG x30TAB</t>
+  </si>
+  <si>
+    <t>NOR-TUSSOL PLUS JBE</t>
+  </si>
+  <si>
+    <t>NOR-VIBRAX 100MG + 2TAB EXTRAC</t>
+  </si>
+  <si>
+    <t>NOR-PRILAT 20MG</t>
+  </si>
+  <si>
+    <t>NOR SECNAL 125 MG PPS</t>
+  </si>
+  <si>
+    <t>ANA-DENT TD</t>
+  </si>
+  <si>
+    <t>ACIDO MEFENAMICO 500MG TM</t>
+  </si>
+  <si>
+    <t>SULFATO FERROSO TM 300MGx30TAB</t>
+  </si>
+  <si>
+    <t>GRIPE-MED FORTE MULTISINT</t>
+  </si>
+  <si>
+    <t>GABAPENTEG 300MG CAPSULAS</t>
+  </si>
+  <si>
+    <t>GLUCOSATEG 1500MG SOBRES</t>
+  </si>
+  <si>
+    <t>METFORTEG 850MG TAB RANU</t>
+  </si>
+  <si>
+    <t>DESLORATEG 2.5 MG/5ML JARABE</t>
+  </si>
+  <si>
+    <t>DULOXETEG 30 MG CAP</t>
+  </si>
+  <si>
+    <t>DULOXETEG 60 MG CAP</t>
+  </si>
+  <si>
+    <t>IRBESARTEG H 300/25 MG TAB REC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OXCARBAZETEG 300 MG TAB REC   </t>
+  </si>
+  <si>
+    <t>TRIMEBUTEG 200 MG TAB REC</t>
+  </si>
+  <si>
+    <t>AMBROXTEG COMPUESTO SOL</t>
+  </si>
+  <si>
+    <t>GLIMEPITEG 4 MG TAB</t>
+  </si>
+  <si>
+    <t>AZITROTEG 500MG TAB REC</t>
+  </si>
+  <si>
+    <t>CINARITEG FORTE 75 MG TAB</t>
+  </si>
+  <si>
+    <t>DEXKETOPROTEG 25 MG TAB REC</t>
+  </si>
+  <si>
+    <t>DIMETITEG 100MG GOTAS</t>
+  </si>
+  <si>
+    <t>DIPIROTEG 500MG TAB</t>
+  </si>
+  <si>
+    <t>GLIBENCLATEG PLUS TAB REC</t>
+  </si>
+  <si>
+    <t>LEVOFLOXATEG 500 MG TAB REC</t>
+  </si>
+  <si>
+    <t>MELOXITEG 15MG TAB</t>
+  </si>
+  <si>
+    <t>ORAL-DENT TG 100 MG SOL</t>
+  </si>
+  <si>
+    <t>ATORVASTATEG 10 MG TAB REC</t>
+  </si>
+  <si>
+    <t>MONTELUTEG 10 MG TAB REC</t>
+  </si>
+  <si>
+    <t>CIPROFLOXATEG 500 MG TAB</t>
+  </si>
+  <si>
+    <t>AMLODITEG 5MG TAB</t>
+  </si>
+  <si>
+    <t>ESOMEPRATEG 40 MG TAB REC</t>
+  </si>
+  <si>
+    <t>MONTELUTEG 4 MG TAB MAS</t>
+  </si>
+  <si>
+    <t>GINGI-DENT TG SOL</t>
+  </si>
+  <si>
+    <t>NOR-CLOVIR 400MG</t>
+  </si>
+  <si>
+    <t>NOR-DERALL 40 MG</t>
   </si>
   <si>
     <t>NOR-TRIPAR 500MG x6TAB</t>
   </si>
   <si>
-    <t>NOR-TRYPTOL 25MG x30TAB</t>
-  </si>
-  <si>
-    <t>NOR-TUSSOL PLUS JBE</t>
-  </si>
-  <si>
-    <t>NOR-VASTINA 10MG x20TAB</t>
-  </si>
-  <si>
-    <t>NOR-VIBRAX 100MG + 2TAB EXTRAC</t>
-  </si>
-  <si>
-    <t>NOR-VOLTEN FLEX x 20TAB</t>
-  </si>
-  <si>
-    <t>NOR-PRILAT 20MG</t>
-  </si>
-  <si>
-    <t>NOR SECNAL 125 MG PPS</t>
-  </si>
-  <si>
-    <t>ANA-DENT TD</t>
-  </si>
-  <si>
-    <t>NOR-VIBRAX 100MG OFT</t>
-  </si>
-  <si>
-    <t>ACIDO MEFENAMICO 500MG TM</t>
-  </si>
-  <si>
-    <t>SULFATO FERROSO TM 300MGx30TAB</t>
-  </si>
-  <si>
-    <t>GRIPE-MED FORTE MULTISINT</t>
-  </si>
-  <si>
-    <t>GABAPENTEG 300MG CAPSULAS</t>
-  </si>
-  <si>
-    <t>GLUCOSATEG 1500MG SOBRES</t>
-  </si>
-  <si>
-    <t>METFORTEG 850MG TAB RANU</t>
-  </si>
-  <si>
-    <t>DESLORATEG 2.5 MG/5ML JARABE</t>
-  </si>
-  <si>
-    <t>DULOXETEG 30 MG CAP</t>
-  </si>
-  <si>
-    <t>DULOXETEG 60 MG CAP</t>
-  </si>
-  <si>
-    <t>IRBESARTEG H 150/12.5 MGTABREC</t>
-  </si>
-  <si>
-    <t>IRBESARTEG H 300/25 MG TAB REC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OXCARBAZETEG 300 MG TAB REC   </t>
+    <t>NOR-VASTINA 20MG x30TAB</t>
+  </si>
+  <si>
+    <t>IRBESARTEG 300 MG TAB REC</t>
+  </si>
+  <si>
+    <t>CIPROFIBRATEG 100 MG TAB</t>
+  </si>
+  <si>
+    <t>IRBESARTEG 150 MG TAB REC</t>
+  </si>
+  <si>
+    <t>ROSUVASTATEG 10 MG TAB REC</t>
+  </si>
+  <si>
+    <t>ROSUVASTATEG 20 MG TAB REC</t>
+  </si>
+  <si>
+    <t>IBANDROTEG 150MG TABLETA</t>
+  </si>
+  <si>
+    <t>MOMETATEG SPRAY NASAL 10G</t>
   </si>
   <si>
     <t xml:space="preserve">QUETIATEG 25 MG TAB REC       </t>
   </si>
   <si>
-    <t>TRIMEBUTEG 200 MG TAB REC</t>
-  </si>
-  <si>
-    <t>AMBROXTEG COMPUESTO SOL</t>
-  </si>
-  <si>
-    <t>GLIMEPITEG 4 MG TAB</t>
-  </si>
-  <si>
-    <t>AZITROTEG 500MG TAB REC</t>
-  </si>
-  <si>
-    <t>CINARITEG FORTE 75 MG TAB</t>
-  </si>
-  <si>
-    <t>DEXKETOPROTEG 25 MG TAB REC</t>
-  </si>
-  <si>
-    <t>DIMETITEG 100MG GOTAS</t>
-  </si>
-  <si>
-    <t>DIPIROTEG 500MG TAB</t>
-  </si>
-  <si>
-    <t>GLIBENCLATEG PLUS TAB REC</t>
-  </si>
-  <si>
-    <t>LEVOFLOXATEG 500 MG TAB REC</t>
-  </si>
-  <si>
-    <t>MELOXITEG 15MG TAB</t>
-  </si>
-  <si>
-    <t>NITAZOXATEG 500MG TAB REC</t>
-  </si>
-  <si>
-    <t>OTILOTEG 40 MG TAB</t>
-  </si>
-  <si>
-    <t>ORAL-DENT TG 100 MG SOL</t>
-  </si>
-  <si>
-    <t>ATORVASTATEG 10 MG TAB REC</t>
-  </si>
-  <si>
-    <t>MONTELUTEG 10 MG TAB REC</t>
-  </si>
-  <si>
-    <t>CIPROFLOXATEG 500 MG TAB</t>
-  </si>
-  <si>
-    <t>AMLODITEG 5MG TAB</t>
-  </si>
-  <si>
-    <t>ESOMEPRATEG 40 MG TAB REC</t>
-  </si>
-  <si>
-    <t>MONTELUTEG 4 MG TAB MAS</t>
-  </si>
-  <si>
-    <t>GINGI-DENT TG SOL</t>
-  </si>
-  <si>
-    <t>NOR-CLOVIR 400MG</t>
-  </si>
-  <si>
-    <t>NOR-DERALL 40 MG</t>
-  </si>
-  <si>
-    <t>NOR-VASTINA 20MG x30TAB</t>
-  </si>
-  <si>
-    <t>IRBESARTEG 300 MG TAB REC</t>
-  </si>
-  <si>
-    <t>CIPROFIBRATEG 100 MG TAB</t>
-  </si>
-  <si>
-    <t>IRBESARTEG 150 MG TAB REC</t>
-  </si>
-  <si>
-    <t>ROSUVASTATEG 10 MG TAB REC</t>
-  </si>
-  <si>
-    <t>ROSUVASTATEG 20 MG TAB REC</t>
-  </si>
-  <si>
-    <t>IBANDROTEG 150MG TABLETA</t>
-  </si>
-  <si>
-    <t>MOMETATEG SPRAY NASAL 10G</t>
-  </si>
-  <si>
     <t>VITAC+ZINCTG500MG FESATABMAS</t>
   </si>
   <si>
@@ -364,117 +334,102 @@
     <t>DISx100TAB</t>
   </si>
   <si>
-    <t>TUBx5G</t>
-  </si>
-  <si>
     <t>FCOx240ML</t>
   </si>
   <si>
     <t>CAJ X 30TAB</t>
   </si>
   <si>
-    <t>FCO X 120 ML</t>
-  </si>
-  <si>
     <t>CAJ X 30 TAB</t>
   </si>
   <si>
+    <t>CAJx30TAB</t>
+  </si>
+  <si>
+    <t>FCOx60ML</t>
+  </si>
+  <si>
+    <t>FCOx120ML</t>
+  </si>
+  <si>
+    <t>CAJx3TAB</t>
+  </si>
+  <si>
+    <t>CAJx40TAB</t>
+  </si>
+  <si>
+    <t>FCOX30ML</t>
+  </si>
+  <si>
+    <t>DISX100TAB</t>
+  </si>
+  <si>
+    <t>DIS X 50 TAB</t>
+  </si>
+  <si>
+    <t>CAJx30CAP</t>
+  </si>
+  <si>
+    <t>CAJx15 SOB</t>
+  </si>
+  <si>
+    <t>CAJx7CAP</t>
+  </si>
+  <si>
+    <t>CAJx14CAP</t>
+  </si>
+  <si>
+    <t>CAJx14TAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAJx20TAB   </t>
+  </si>
+  <si>
+    <t>FCOx120mL</t>
+  </si>
+  <si>
+    <t>CAJx15TAB</t>
+  </si>
+  <si>
     <t>CAJx20TAB</t>
   </si>
   <si>
-    <t>CAJx30TAB</t>
-  </si>
-  <si>
-    <t>FCOx60ML</t>
-  </si>
-  <si>
-    <t>FCOx30ML</t>
+    <t>CAJx10TAB</t>
+  </si>
+  <si>
+    <t>FCOx20ML</t>
+  </si>
+  <si>
+    <t>CAJx100TAB</t>
+  </si>
+  <si>
+    <t>CAJx7TAB</t>
+  </si>
+  <si>
+    <t>CAJx10 TAB</t>
+  </si>
+  <si>
+    <t>CAJX6TAB</t>
+  </si>
+  <si>
+    <t>CAJ X 50 TAB</t>
   </si>
   <si>
     <t>CAJx6TAB</t>
   </si>
   <si>
-    <t>FCOx120ML</t>
-  </si>
-  <si>
-    <t>CAJx3TAB</t>
-  </si>
-  <si>
-    <t>CAJx40TAB</t>
-  </si>
-  <si>
-    <t>FCOX30ML</t>
-  </si>
-  <si>
-    <t>DISX100TAB</t>
-  </si>
-  <si>
-    <t>3CAJx1TAB</t>
-  </si>
-  <si>
-    <t>DIS X 50 TAB</t>
-  </si>
-  <si>
-    <t>CAJx30CAP</t>
-  </si>
-  <si>
-    <t>CAJx15 SOB</t>
-  </si>
-  <si>
-    <t>CAJx7CAP</t>
-  </si>
-  <si>
-    <t>CAJx14CAP</t>
-  </si>
-  <si>
-    <t>CAJx14TAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAJx20TAB   </t>
+    <t>CAJX10TAB</t>
+  </si>
+  <si>
+    <t>CAJx1TAB</t>
+  </si>
+  <si>
+    <t>FCOX10G</t>
   </si>
   <si>
     <t xml:space="preserve">CAJx30TAB   </t>
   </si>
   <si>
-    <t>FCOx120mL</t>
-  </si>
-  <si>
-    <t>CAJx15TAB</t>
-  </si>
-  <si>
-    <t>CAJx10TAB</t>
-  </si>
-  <si>
-    <t>FCOx20ML</t>
-  </si>
-  <si>
-    <t>CAJx100TAB</t>
-  </si>
-  <si>
-    <t>CAJx7TAB</t>
-  </si>
-  <si>
-    <t>CAJ x6TAB</t>
-  </si>
-  <si>
-    <t>CAJx10 TAB</t>
-  </si>
-  <si>
-    <t>CAJX6TAB</t>
-  </si>
-  <si>
-    <t>CAJ X 50 TAB</t>
-  </si>
-  <si>
-    <t>CAJX10TAB</t>
-  </si>
-  <si>
-    <t>CAJx1TAB</t>
-  </si>
-  <si>
-    <t>FCOX10G</t>
-  </si>
-  <si>
     <t>DPLX100TAB</t>
   </si>
   <si>
@@ -538,189 +493,165 @@
     <t>228</t>
   </si>
   <si>
-    <t>NCC</t>
-  </si>
-  <si>
     <t>T43</t>
   </si>
   <si>
     <t>245</t>
   </si>
   <si>
-    <t>246</t>
-  </si>
-  <si>
     <t>251</t>
   </si>
   <si>
-    <t>271</t>
-  </si>
-  <si>
     <t>274</t>
   </si>
   <si>
     <t>276</t>
   </si>
   <si>
+    <t>NTY</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>M15</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>M90</t>
+  </si>
+  <si>
+    <t>GB3</t>
+  </si>
+  <si>
+    <t>GTG</t>
+  </si>
+  <si>
+    <t>MTG</t>
+  </si>
+  <si>
+    <t>DLG</t>
+  </si>
+  <si>
+    <t>DU3</t>
+  </si>
+  <si>
+    <t>DUT</t>
+  </si>
+  <si>
+    <t>BH2</t>
+  </si>
+  <si>
+    <t>OXR</t>
+  </si>
+  <si>
+    <t>TMB</t>
+  </si>
+  <si>
+    <t>AMC</t>
+  </si>
+  <si>
+    <t>GM4</t>
+  </si>
+  <si>
+    <t>AZT</t>
+  </si>
+  <si>
+    <t>CNF</t>
+  </si>
+  <si>
+    <t>DXK</t>
+  </si>
+  <si>
+    <t>DMT</t>
+  </si>
+  <si>
+    <t>DPT</t>
+  </si>
+  <si>
+    <t>GTP</t>
+  </si>
+  <si>
+    <t>LVF</t>
+  </si>
+  <si>
+    <t>MLX</t>
+  </si>
+  <si>
+    <t>DT7</t>
+  </si>
+  <si>
+    <t>ATV</t>
+  </si>
+  <si>
+    <t>MLT</t>
+  </si>
+  <si>
+    <t>CPF</t>
+  </si>
+  <si>
+    <t>AM5</t>
+  </si>
+  <si>
+    <t>ETG</t>
+  </si>
+  <si>
+    <t>ML4</t>
+  </si>
+  <si>
+    <t>DT5</t>
+  </si>
+  <si>
+    <t>NC4</t>
+  </si>
+  <si>
+    <t>ND4</t>
+  </si>
+  <si>
     <t>NTQ</t>
   </si>
   <si>
-    <t>NTY</t>
-  </si>
-  <si>
-    <t>281</t>
-  </si>
-  <si>
-    <t>283</t>
-  </si>
-  <si>
-    <t>285</t>
-  </si>
-  <si>
-    <t>287</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>M15</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>361</t>
-  </si>
-  <si>
-    <t>M90</t>
-  </si>
-  <si>
-    <t>GB3</t>
-  </si>
-  <si>
-    <t>GTG</t>
-  </si>
-  <si>
-    <t>MTG</t>
-  </si>
-  <si>
-    <t>DLG</t>
-  </si>
-  <si>
-    <t>DU3</t>
-  </si>
-  <si>
-    <t>DUT</t>
-  </si>
-  <si>
-    <t>IBH</t>
-  </si>
-  <si>
-    <t>BH2</t>
-  </si>
-  <si>
-    <t>OXR</t>
+    <t>NV2</t>
+  </si>
+  <si>
+    <t>BT3</t>
+  </si>
+  <si>
+    <t>CPR</t>
+  </si>
+  <si>
+    <t>IBT</t>
+  </si>
+  <si>
+    <t>RTG</t>
+  </si>
+  <si>
+    <t>RU2</t>
+  </si>
+  <si>
+    <t>ITG</t>
+  </si>
+  <si>
+    <t>MMS</t>
   </si>
   <si>
     <t>QUT</t>
   </si>
   <si>
-    <t>TMB</t>
-  </si>
-  <si>
-    <t>AMC</t>
-  </si>
-  <si>
-    <t>GM4</t>
-  </si>
-  <si>
-    <t>AZT</t>
-  </si>
-  <si>
-    <t>CNF</t>
-  </si>
-  <si>
-    <t>DXK</t>
-  </si>
-  <si>
-    <t>DMT</t>
-  </si>
-  <si>
-    <t>DPT</t>
-  </si>
-  <si>
-    <t>GTP</t>
-  </si>
-  <si>
-    <t>LVF</t>
-  </si>
-  <si>
-    <t>MLX</t>
-  </si>
-  <si>
-    <t>NT5</t>
-  </si>
-  <si>
-    <t>OTL</t>
-  </si>
-  <si>
-    <t>DT7</t>
-  </si>
-  <si>
-    <t>ATV</t>
-  </si>
-  <si>
-    <t>MLT</t>
-  </si>
-  <si>
-    <t>CPF</t>
-  </si>
-  <si>
-    <t>AM5</t>
-  </si>
-  <si>
-    <t>ETG</t>
-  </si>
-  <si>
-    <t>ML4</t>
-  </si>
-  <si>
-    <t>DT5</t>
-  </si>
-  <si>
-    <t>NC4</t>
-  </si>
-  <si>
-    <t>ND4</t>
-  </si>
-  <si>
-    <t>NV2</t>
-  </si>
-  <si>
-    <t>BT3</t>
-  </si>
-  <si>
-    <t>CPR</t>
-  </si>
-  <si>
-    <t>IBT</t>
-  </si>
-  <si>
-    <t>RTG</t>
-  </si>
-  <si>
-    <t>RU2</t>
-  </si>
-  <si>
-    <t>ITG</t>
-  </si>
-  <si>
-    <t>MMS</t>
-  </si>
-  <si>
     <t>VCT</t>
   </si>
   <si>
@@ -736,187 +667,163 @@
     <t xml:space="preserve">Nor-Clamida 5MG     </t>
   </si>
   <si>
-    <t xml:space="preserve">Nor-Clovir 5% Crema </t>
-  </si>
-  <si>
     <t>Nor-Crezinc 10MG Jbe</t>
   </si>
   <si>
     <t xml:space="preserve">Nor-Glucox 850MG    </t>
   </si>
   <si>
-    <t xml:space="preserve">Nor-Kedy JBE        </t>
-  </si>
-  <si>
     <t xml:space="preserve">Nor-Lipox 20MG      </t>
   </si>
   <si>
-    <t xml:space="preserve">Nor-Silium 10MG     </t>
-  </si>
-  <si>
     <t xml:space="preserve">Nor-Tiazida 25MG    </t>
   </si>
   <si>
     <t xml:space="preserve">Nor-Tripar 100MG S  </t>
   </si>
   <si>
+    <t xml:space="preserve">Nor-Trypol 25MG     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nor-Tussol P.150MG  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nor-Vibrax 100MG    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nor-Prilat 20MG     </t>
+  </si>
+  <si>
+    <t>Nor-Secnal 125MG Jbe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Dent Todo Dolor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acido Mefenamico TM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sulfato Ferroso TM  </t>
+  </si>
+  <si>
+    <t>Gripe-Med Forte Mult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabapenteg 300 Mg   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glucosateg          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metforteg           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deslorateg          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duloxeteg 30 Mg     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duloxeteg           </t>
+  </si>
+  <si>
+    <t>Irbesarteg H300/25Mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxcarbazeteg 300 Mg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trimebuteg 200 Mg   </t>
+  </si>
+  <si>
+    <t>Ambroxteg Comp.Soluc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glimepiteg 4 Mg     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azitroteg 500 Mg    </t>
+  </si>
+  <si>
+    <t>Cinariteg Forte 75Mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dexketoproteg 25 Mg </t>
+  </si>
+  <si>
+    <t>Dimetiteg 100Mg Gtas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dipiroteg 500 Mg    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glibenclateg Plus   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levofloxateg 500 Mg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meloxiteg 15 Mg     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral-Dent 100MG Sol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atorvastateg        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monteluteg          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciprofloxateg       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amloditeg 5 Mg      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esomeprateg         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monteluteg 4 Mg     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gingi-Dent          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nor-Clovir 400MG    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nor-Derall 40MG     </t>
+  </si>
+  <si>
     <t xml:space="preserve">Nor-Tripar 500MG    </t>
   </si>
   <si>
-    <t xml:space="preserve">Nor-Trypol 25MG     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nor-Tussol P.150MG  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nor-Vastina 10MG    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nor-Vibrax 100MG    </t>
-  </si>
-  <si>
-    <t>Nor-Volten Flex 25MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nor-Prilat 20MG     </t>
-  </si>
-  <si>
-    <t>Nor-Secnal 125MG Jbe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Dent Todo Dolor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acido Mefenamico TM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sulfato Ferroso TM  </t>
-  </si>
-  <si>
-    <t>Gripe-Med Forte Mult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabapenteg 300 Mg   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glucosateg          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metforteg           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deslorateg          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duloxeteg 30 Mg     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duloxeteg           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irbesarteg H        </t>
-  </si>
-  <si>
-    <t>Irbesarteg H300/25Mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxcarbazeteg 300 Mg </t>
+    <t xml:space="preserve">Nor-Vastina 20MG    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irbesarteg 300 Mg   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciprofibrateg       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irbesarteg          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosuvastateg        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosuvastateg 20 Mg  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibandroteg 150 Mg   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mometateg           </t>
   </si>
   <si>
     <t xml:space="preserve">Quetiateg           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trimebuteg 200 Mg   </t>
-  </si>
-  <si>
-    <t>Ambroxteg Comp.Soluc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glimepiteg 4 Mg     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azitroteg 500 Mg    </t>
-  </si>
-  <si>
-    <t>Cinariteg Forte 75Mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dexketoproteg 25 Mg </t>
-  </si>
-  <si>
-    <t>Dimetiteg 100Mg Gtas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dipiroteg 500 Mg    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glibenclateg Plus   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Levofloxateg 500 Mg </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meloxiteg 15 Mg     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nitazoxateg 500 Mg  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otiloteg 40 Mg      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oral-Dent 100MG Sol </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atorvastateg        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monteluteg          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciprofloxateg       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amloditeg 5 Mg      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esomeprateg         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monteluteg 4 Mg     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gingi-Dent          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nor-Clovir 400MG    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nor-Derall 40MG     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nor-Vastina 20MG    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irbesarteg 300 Mg   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciprofibrateg       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irbesarteg          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosuvastateg        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosuvastateg 20 Mg  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ibandroteg 150 Mg   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mometateg           </t>
   </si>
   <si>
     <t xml:space="preserve">Vita c TG           </t>
@@ -1370,7 +1277,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL71"/>
+  <dimension ref="A1:AL61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1527,64 +1434,64 @@
         <v>42</v>
       </c>
       <c r="M2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="N2">
         <v>82</v>
       </c>
       <c r="O2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="P2">
         <v>822</v>
       </c>
       <c r="Q2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="R2" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="S2" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="T2">
         <v>68.47056000000001</v>
       </c>
       <c r="U2" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="X2" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="AA2" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="AB2" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="AC2" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="AD2" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="AE2">
         <v>1</v>
       </c>
       <c r="AF2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -1593,7 +1500,7 @@
         <v>68.47056000000001</v>
       </c>
       <c r="AI2">
-        <v>273.88224</v>
+        <v>205.41168</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -1602,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -1643,58 +1550,58 @@
         <v>43</v>
       </c>
       <c r="M3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="N3">
         <v>82</v>
       </c>
       <c r="O3" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="P3">
         <v>824</v>
       </c>
       <c r="Q3" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="R3" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="S3" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="T3">
         <v>1.172528</v>
       </c>
       <c r="U3" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="X3" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="AA3" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="AB3" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="AC3" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="AD3" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -1718,7 +1625,7 @@
         <v>-1.34</v>
       </c>
       <c r="AL3" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:38">
@@ -1759,58 +1666,58 @@
         <v>44</v>
       </c>
       <c r="M4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="N4">
         <v>82</v>
       </c>
       <c r="O4" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="P4">
         <v>824</v>
       </c>
       <c r="Q4" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="R4" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="S4" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="T4">
         <v>10.965375</v>
       </c>
       <c r="U4" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="X4" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="AA4" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="AB4" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="AC4" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="AD4" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="AE4">
         <v>1</v>
@@ -1834,7 +1741,7 @@
         <v>-92.68000000000001</v>
       </c>
       <c r="AL4" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -1875,58 +1782,58 @@
         <v>45</v>
       </c>
       <c r="M5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="N5">
         <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="P5">
         <v>824</v>
       </c>
       <c r="Q5" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="R5" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="S5" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="T5">
         <v>19.93682666666667</v>
       </c>
       <c r="U5" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="X5" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="AA5" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="AB5" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="AC5" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="AD5" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="AE5">
         <v>2</v>
@@ -1950,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -1991,73 +1898,73 @@
         <v>46</v>
       </c>
       <c r="M6" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="N6">
         <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="P6">
         <v>824</v>
       </c>
       <c r="Q6" t="s">
+        <v>143</v>
+      </c>
+      <c r="R6" t="s">
         <v>158</v>
       </c>
-      <c r="R6" t="s">
-        <v>173</v>
-      </c>
       <c r="S6" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="T6">
         <v>9.0015</v>
       </c>
       <c r="U6" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="X6" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="AA6" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="AB6" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="AC6" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="AD6" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="AE6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF6">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>72.012</v>
+        <v>54.009</v>
       </c>
       <c r="AI6">
-        <v>1602.267</v>
+        <v>1305.2175</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -2066,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -2101,79 +2008,79 @@
         <v>41</v>
       </c>
       <c r="K7">
-        <v>2009647</v>
+        <v>2009944</v>
       </c>
       <c r="L7" t="s">
         <v>47</v>
       </c>
       <c r="M7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="N7">
         <v>82</v>
       </c>
       <c r="O7" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="P7">
         <v>824</v>
       </c>
       <c r="Q7" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="R7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="S7" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="T7">
-        <v>2.86875</v>
+        <v>6.582233333333333</v>
       </c>
       <c r="U7" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="X7" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="AA7" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="AB7" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="AC7" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="AD7" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="AG7">
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>13.16446666666667</v>
       </c>
       <c r="AI7">
-        <v>2.86875</v>
+        <v>223.7959333333333</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -2182,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -2217,88 +2124,88 @@
         <v>41</v>
       </c>
       <c r="K8">
-        <v>2009944</v>
+        <v>2012593</v>
       </c>
       <c r="L8" t="s">
         <v>48</v>
       </c>
       <c r="M8" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="N8">
         <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="P8">
         <v>824</v>
       </c>
       <c r="Q8" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="R8" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="S8" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T8">
-        <v>6.582233333333333</v>
+        <v>3.98544</v>
       </c>
       <c r="U8" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="X8" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="AA8" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="AB8" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="AC8" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="AD8" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="AE8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="AH8">
-        <v>13.16446666666667</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>223.7959333333333</v>
+        <v>3.98544</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>-27.89808</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>-37.87</v>
       </c>
       <c r="AL8" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -2333,88 +2240,88 @@
         <v>41</v>
       </c>
       <c r="K9">
-        <v>2012593</v>
+        <v>2013534</v>
       </c>
       <c r="L9" t="s">
         <v>49</v>
       </c>
       <c r="M9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="N9">
         <v>82</v>
       </c>
       <c r="O9" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="P9">
         <v>824</v>
       </c>
       <c r="Q9" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="R9" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="S9" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="T9">
-        <v>3.98544</v>
+        <v>14.61809333333334</v>
       </c>
       <c r="U9" t="s">
-        <v>302</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
+        <v>271</v>
+      </c>
+      <c r="V9" t="s">
+        <v>273</v>
       </c>
       <c r="W9" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="X9" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="AA9" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="AB9" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="AC9" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="AD9" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>1</v>
       </c>
       <c r="AG9">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>14.61809333333334</v>
       </c>
       <c r="AI9">
-        <v>3.98544</v>
+        <v>14.61809333333334</v>
       </c>
       <c r="AJ9">
-        <v>-27.89808</v>
+        <v>-14.61809333333334</v>
       </c>
       <c r="AK9">
-        <v>-37.87</v>
+        <v>-19.86</v>
       </c>
       <c r="AL9" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -2449,70 +2356,70 @@
         <v>41</v>
       </c>
       <c r="K10">
-        <v>2012876</v>
+        <v>2017598</v>
       </c>
       <c r="L10" t="s">
         <v>50</v>
       </c>
       <c r="M10" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="N10">
         <v>82</v>
       </c>
       <c r="O10" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="P10">
         <v>824</v>
       </c>
       <c r="Q10" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="R10" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="S10" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="T10">
-        <v>4.499504</v>
+        <v>1.78695</v>
       </c>
       <c r="U10" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="X10" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="AA10" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="AB10" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="AC10" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="AD10" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -2521,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>8.999008</v>
+        <v>7.147799999999998</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -2530,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -2565,88 +2472,88 @@
         <v>41</v>
       </c>
       <c r="K11">
-        <v>2013534</v>
+        <v>2018102</v>
       </c>
       <c r="L11" t="s">
         <v>51</v>
       </c>
       <c r="M11" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="N11">
         <v>82</v>
       </c>
       <c r="O11" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="P11">
         <v>824</v>
       </c>
       <c r="Q11" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="R11" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="S11" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="T11">
-        <v>14.61809333333334</v>
+        <v>5.007792</v>
       </c>
       <c r="U11" t="s">
-        <v>302</v>
-      </c>
-      <c r="V11" t="s">
-        <v>304</v>
+        <v>271</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="X11" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="AA11" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="AB11" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="AC11" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="AD11" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <v>14.61809333333334</v>
+        <v>45.070128</v>
       </c>
       <c r="AI11">
-        <v>14.61809333333334</v>
+        <v>10.015584</v>
       </c>
       <c r="AJ11">
-        <v>-14.61809333333334</v>
+        <v>0</v>
       </c>
       <c r="AK11">
-        <v>-19.86</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -2681,79 +2588,79 @@
         <v>41</v>
       </c>
       <c r="K12">
-        <v>2017215</v>
+        <v>2018522</v>
       </c>
       <c r="L12" t="s">
         <v>52</v>
       </c>
       <c r="M12" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="N12">
         <v>82</v>
       </c>
       <c r="O12" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="P12">
         <v>824</v>
       </c>
       <c r="Q12" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="R12" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="S12" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="T12">
-        <v>4.283265</v>
+        <v>4.38615</v>
       </c>
       <c r="U12" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="X12" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="AA12" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="AB12" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="AC12" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="AD12" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="AE12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="AG12">
         <v>0</v>
       </c>
       <c r="AH12">
-        <v>12.849795</v>
+        <v>0</v>
       </c>
       <c r="AI12">
-        <v>111.36489</v>
+        <v>4.38615</v>
       </c>
       <c r="AJ12">
         <v>0</v>
@@ -2762,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="AL12" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -2797,79 +2704,79 @@
         <v>41</v>
       </c>
       <c r="K13">
-        <v>2017598</v>
+        <v>2019044</v>
       </c>
       <c r="L13" t="s">
         <v>53</v>
       </c>
       <c r="M13" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="N13">
         <v>82</v>
       </c>
       <c r="O13" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="P13">
         <v>824</v>
       </c>
       <c r="Q13" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="R13" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="S13" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="T13">
-        <v>1.78695</v>
+        <v>5.2706</v>
       </c>
       <c r="U13" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V13">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="X13" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="AA13" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="AB13" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="AC13" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="AD13" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG13">
         <v>0</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>5.2706</v>
       </c>
       <c r="AI13">
-        <v>7.147799999999998</v>
+        <v>15.8118</v>
       </c>
       <c r="AJ13">
         <v>0</v>
@@ -2878,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -2913,79 +2820,79 @@
         <v>41</v>
       </c>
       <c r="K14">
-        <v>2018102</v>
+        <v>2019921</v>
       </c>
       <c r="L14" t="s">
         <v>54</v>
       </c>
       <c r="M14" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="N14">
         <v>82</v>
       </c>
       <c r="O14" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="P14">
         <v>824</v>
       </c>
       <c r="Q14" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="R14" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="S14" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="T14">
-        <v>5.007792</v>
+        <v>2.521666666666667</v>
       </c>
       <c r="U14" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="V14">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="X14" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="AA14" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="AB14" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="AC14" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="AD14" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="AE14">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14">
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>45.070128</v>
+        <v>0</v>
       </c>
       <c r="AI14">
-        <v>10.015584</v>
+        <v>2.521666666666667</v>
       </c>
       <c r="AJ14">
         <v>0</v>
@@ -2994,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -3029,88 +2936,88 @@
         <v>41</v>
       </c>
       <c r="K15">
-        <v>2018140</v>
+        <v>2021553</v>
       </c>
       <c r="L15" t="s">
         <v>55</v>
       </c>
       <c r="M15" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="N15">
         <v>82</v>
       </c>
       <c r="O15" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="P15">
         <v>824</v>
       </c>
       <c r="Q15" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="R15" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S15" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="T15">
-        <v>2.552992</v>
+        <v>7.532866666666668</v>
       </c>
       <c r="U15" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="X15" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="AA15" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="AB15" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="AC15" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="AD15" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>7.532866666666668</v>
       </c>
       <c r="AI15">
-        <v>10.211968</v>
+        <v>120.5258666666667</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <v>-37.66433333333334</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>-51.15</v>
       </c>
       <c r="AL15" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -3145,88 +3052,88 @@
         <v>41</v>
       </c>
       <c r="K16">
-        <v>2018188</v>
+        <v>2022914</v>
       </c>
       <c r="L16" t="s">
         <v>56</v>
       </c>
       <c r="M16" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="N16">
         <v>82</v>
       </c>
       <c r="O16" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="P16">
         <v>824</v>
       </c>
       <c r="Q16" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="R16" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="S16" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="T16">
-        <v>5.365904</v>
+        <v>3.6822</v>
       </c>
       <c r="U16" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="X16" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="AA16" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="AB16" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="AC16" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="AD16" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AG16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH16">
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>21.463616</v>
+        <v>36.822</v>
       </c>
       <c r="AJ16">
-        <v>-5.365904</v>
+        <v>0</v>
       </c>
       <c r="AK16">
-        <v>-6.32</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:38">
@@ -3261,79 +3168,79 @@
         <v>41</v>
       </c>
       <c r="K17">
-        <v>2018522</v>
+        <v>2023115</v>
       </c>
       <c r="L17" t="s">
         <v>57</v>
       </c>
       <c r="M17" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="N17">
         <v>82</v>
       </c>
       <c r="O17" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="P17">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="Q17" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="R17" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="S17" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="T17">
-        <v>4.38615</v>
+        <v>13.412955</v>
       </c>
       <c r="U17" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="X17" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="AA17" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="AB17" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="AC17" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="AD17" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AF17">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="AG17">
         <v>0</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>402.38865</v>
       </c>
       <c r="AI17">
-        <v>4.38615</v>
+        <v>885.25503</v>
       </c>
       <c r="AJ17">
         <v>0</v>
@@ -3342,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:38">
@@ -3377,79 +3284,79 @@
         <v>41</v>
       </c>
       <c r="K18">
-        <v>2019044</v>
+        <v>2037194</v>
       </c>
       <c r="L18" t="s">
         <v>58</v>
       </c>
       <c r="M18" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="N18">
         <v>82</v>
       </c>
       <c r="O18" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="P18">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="Q18" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="R18" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="S18" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="T18">
-        <v>5.2706</v>
+        <v>16.581375</v>
       </c>
       <c r="U18" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="X18" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
-      <c r="Z18" t="s">
-        <v>313</v>
+      <c r="Z18">
+        <v>0</v>
       </c>
       <c r="AA18" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="AB18" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="AC18" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="AD18" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="AE18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="AG18">
         <v>0</v>
       </c>
       <c r="AH18">
-        <v>5.2706</v>
+        <v>0</v>
       </c>
       <c r="AI18">
-        <v>15.8118</v>
+        <v>630.09225</v>
       </c>
       <c r="AJ18">
         <v>0</v>
@@ -3458,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="AL18" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:38">
@@ -3493,79 +3400,79 @@
         <v>41</v>
       </c>
       <c r="K19">
-        <v>2019242</v>
+        <v>2045045</v>
       </c>
       <c r="L19" t="s">
         <v>59</v>
       </c>
       <c r="M19" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="N19">
         <v>82</v>
       </c>
       <c r="O19" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="P19">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="Q19" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="R19" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="S19" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="T19">
-        <v>5.756746666666667</v>
+        <v>2.713516666666667</v>
       </c>
       <c r="U19" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="X19" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
-      <c r="Z19" t="s">
-        <v>314</v>
+      <c r="Z19">
+        <v>0</v>
       </c>
       <c r="AA19" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="AB19" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="AC19" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="AD19" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF19">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="AG19">
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>5.427033333333333</v>
       </c>
       <c r="AI19">
-        <v>5.756746666666667</v>
+        <v>1126.109416666667</v>
       </c>
       <c r="AJ19">
         <v>0</v>
@@ -3574,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:38">
@@ -3609,79 +3516,79 @@
         <v>41</v>
       </c>
       <c r="K20">
-        <v>2019921</v>
+        <v>2060974</v>
       </c>
       <c r="L20" t="s">
         <v>60</v>
       </c>
       <c r="M20" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="N20">
         <v>82</v>
       </c>
       <c r="O20" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="P20">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="Q20" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="R20" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="S20" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="T20">
-        <v>2.521666666666667</v>
+        <v>6.919166666666666</v>
       </c>
       <c r="U20" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="V20">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="X20" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="AA20" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="AB20" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="AC20" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="AD20" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF20">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AG20">
         <v>0</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>69.19166666666666</v>
       </c>
       <c r="AI20">
-        <v>2.521666666666667</v>
+        <v>83.03</v>
       </c>
       <c r="AJ20">
         <v>0</v>
@@ -3690,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="AL20" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:38">
@@ -3725,64 +3632,64 @@
         <v>41</v>
       </c>
       <c r="K21">
-        <v>2020567</v>
+        <v>2090113</v>
       </c>
       <c r="L21" t="s">
         <v>61</v>
       </c>
       <c r="M21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N21">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="O21" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="P21">
-        <v>824</v>
+        <v>74</v>
       </c>
       <c r="Q21" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="R21" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="S21" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="T21">
-        <v>3.529136</v>
+        <v>7.099903654955998</v>
       </c>
       <c r="U21" t="s">
-        <v>302</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
+        <v>271</v>
+      </c>
+      <c r="V21" t="s">
+        <v>274</v>
       </c>
       <c r="W21" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="X21" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>313</v>
+        <v>272</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
       </c>
       <c r="AA21" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="AB21" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="AC21" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="AD21" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="AE21">
         <v>0</v>
@@ -3797,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>3.529136</v>
+        <v>7.099903654955998</v>
       </c>
       <c r="AJ21">
         <v>0</v>
@@ -3806,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="AL21" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:38">
@@ -3841,88 +3748,88 @@
         <v>41</v>
       </c>
       <c r="K22">
-        <v>2021553</v>
+        <v>2090120</v>
       </c>
       <c r="L22" t="s">
         <v>62</v>
       </c>
       <c r="M22" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="N22">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="O22" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="P22">
-        <v>824</v>
+        <v>70</v>
       </c>
       <c r="Q22" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="R22" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="S22" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="T22">
-        <v>7.532866666666668</v>
+        <v>6.070861499999998</v>
       </c>
       <c r="U22" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="X22" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>314</v>
+        <v>272</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
       </c>
       <c r="AA22" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="AB22" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="AC22" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="AD22" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="AE22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AG22">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="AH22">
-        <v>7.532866666666668</v>
+        <v>0</v>
       </c>
       <c r="AI22">
-        <v>120.5258666666667</v>
+        <v>18.21258449999999</v>
       </c>
       <c r="AJ22">
-        <v>-37.66433333333334</v>
+        <v>-12.141723</v>
       </c>
       <c r="AK22">
-        <v>-51.15</v>
+        <v>-16.18</v>
       </c>
       <c r="AL22" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:38">
@@ -3957,79 +3864,79 @@
         <v>41</v>
       </c>
       <c r="K23">
-        <v>2022914</v>
+        <v>2090168</v>
       </c>
       <c r="L23" t="s">
         <v>63</v>
       </c>
       <c r="M23" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="N23">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="O23" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="P23">
-        <v>824</v>
+        <v>72</v>
       </c>
       <c r="Q23" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="R23" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="S23" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="T23">
-        <v>3.6822</v>
+        <v>3.743298</v>
       </c>
       <c r="U23" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V23">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="X23" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>314</v>
+        <v>271</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
       </c>
       <c r="AA23" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="AB23" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="AC23" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="AD23" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF23">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="AG23">
         <v>0</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>11.229894</v>
       </c>
       <c r="AI23">
-        <v>36.822</v>
+        <v>97.32574799999999</v>
       </c>
       <c r="AJ23">
         <v>0</v>
@@ -4038,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AL23" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:38">
@@ -4073,79 +3980,79 @@
         <v>41</v>
       </c>
       <c r="K24">
-        <v>2023115</v>
+        <v>2090366</v>
       </c>
       <c r="L24" t="s">
         <v>64</v>
       </c>
       <c r="M24" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="N24">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="O24" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="P24">
-        <v>822</v>
+        <v>73</v>
       </c>
       <c r="Q24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="R24" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="S24" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="T24">
-        <v>13.412955</v>
+        <v>5.170655655</v>
       </c>
       <c r="U24" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V24">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="X24" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
-      <c r="Z24" t="s">
-        <v>313</v>
+      <c r="Z24">
+        <v>0</v>
       </c>
       <c r="AA24" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="AB24" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="AC24" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="AD24" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="AE24">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AF24">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="AG24">
         <v>0</v>
       </c>
       <c r="AH24">
-        <v>402.38865</v>
+        <v>0</v>
       </c>
       <c r="AI24">
-        <v>885.25503</v>
+        <v>10.34131131</v>
       </c>
       <c r="AJ24">
         <v>0</v>
@@ -4154,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="AL24" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:38">
@@ -4189,88 +4096,88 @@
         <v>41</v>
       </c>
       <c r="K25">
-        <v>2023450</v>
+        <v>2090397</v>
       </c>
       <c r="L25" t="s">
         <v>65</v>
       </c>
       <c r="M25" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="N25">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="O25" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="P25">
-        <v>824</v>
+        <v>74</v>
       </c>
       <c r="Q25" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="R25" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="S25" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="T25">
-        <v>2.676213333333334</v>
+        <v>5.840643929999999</v>
       </c>
       <c r="U25" t="s">
-        <v>302</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
+        <v>271</v>
+      </c>
+      <c r="V25" t="s">
+        <v>275</v>
       </c>
       <c r="W25" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="X25" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>314</v>
+        <v>272</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
       </c>
       <c r="AA25" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="AB25" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="AC25" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="AD25" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="AE25">
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="AH25">
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>2.676213333333334</v>
+        <v>29.20321964999999</v>
       </c>
       <c r="AJ25">
-        <v>0</v>
+        <v>-40.88450750999999</v>
       </c>
       <c r="AK25">
-        <v>0</v>
+        <v>-61.04</v>
       </c>
       <c r="AL25" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:38">
@@ -4305,79 +4212,79 @@
         <v>41</v>
       </c>
       <c r="K26">
-        <v>2037194</v>
+        <v>2090403</v>
       </c>
       <c r="L26" t="s">
         <v>66</v>
       </c>
       <c r="M26" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="N26">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="O26" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="P26">
-        <v>820</v>
+        <v>74</v>
       </c>
       <c r="Q26" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="R26" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="S26" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="T26">
-        <v>16.581375</v>
+        <v>17.96424</v>
       </c>
       <c r="U26" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="X26" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
+        <v>272</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>280</v>
       </c>
       <c r="Z26">
         <v>0</v>
       </c>
       <c r="AA26" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="AB26" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="AC26" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="AD26" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF26">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AG26">
         <v>0</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>35.92847999999999</v>
       </c>
       <c r="AI26">
-        <v>630.09225</v>
+        <v>161.67816</v>
       </c>
       <c r="AJ26">
         <v>0</v>
@@ -4386,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="AL26" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:38">
@@ -4421,79 +4328,79 @@
         <v>41</v>
       </c>
       <c r="K27">
-        <v>2045045</v>
+        <v>2090526</v>
       </c>
       <c r="L27" t="s">
         <v>67</v>
       </c>
       <c r="M27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N27">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="O27" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="P27">
-        <v>820</v>
+        <v>71</v>
       </c>
       <c r="Q27" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="R27" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="S27" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="T27">
-        <v>2.713516666666667</v>
+        <v>4.802525159999999</v>
       </c>
       <c r="U27" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V27">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="X27" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
+        <v>271</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>280</v>
       </c>
       <c r="Z27">
         <v>0</v>
       </c>
       <c r="AA27" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="AB27" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="AC27" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="AD27" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="AE27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF27">
-        <v>415</v>
+        <v>1</v>
       </c>
       <c r="AG27">
         <v>0</v>
       </c>
       <c r="AH27">
-        <v>5.427033333333333</v>
+        <v>0</v>
       </c>
       <c r="AI27">
-        <v>1126.109416666667</v>
+        <v>4.802525159999999</v>
       </c>
       <c r="AJ27">
         <v>0</v>
@@ -4502,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="AL27" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:38">
@@ -4537,79 +4444,79 @@
         <v>41</v>
       </c>
       <c r="K28">
-        <v>2060974</v>
+        <v>2090588</v>
       </c>
       <c r="L28" t="s">
         <v>68</v>
       </c>
       <c r="M28" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="N28">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="O28" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="P28">
-        <v>826</v>
+        <v>74</v>
       </c>
       <c r="Q28" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="R28" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="S28" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="T28">
-        <v>6.919166666666666</v>
+        <v>7.536237890399999</v>
       </c>
       <c r="U28" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V28">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="X28" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
-      <c r="Z28" t="s">
-        <v>314</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>316</v>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
       </c>
       <c r="AB28" t="s">
-        <v>320</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>328</v>
+        <v>288</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
       </c>
       <c r="AE28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF28">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AG28">
         <v>0</v>
       </c>
       <c r="AH28">
-        <v>69.19166666666666</v>
+        <v>0</v>
       </c>
       <c r="AI28">
-        <v>83.03</v>
+        <v>15.0724757808</v>
       </c>
       <c r="AJ28">
         <v>0</v>
@@ -4618,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="AL28" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:38">
@@ -4653,70 +4560,70 @@
         <v>41</v>
       </c>
       <c r="K29">
-        <v>2090113</v>
+        <v>2090724</v>
       </c>
       <c r="L29" t="s">
         <v>69</v>
       </c>
       <c r="M29" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="N29">
         <v>7</v>
       </c>
       <c r="O29" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="P29">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Q29" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="R29" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="S29" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="T29">
-        <v>7.099903654955998</v>
+        <v>9.719344124999999</v>
       </c>
       <c r="U29" t="s">
-        <v>302</v>
-      </c>
-      <c r="V29" t="s">
-        <v>305</v>
+        <v>271</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="X29" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="Y29" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="Z29">
         <v>0</v>
       </c>
       <c r="AA29" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="AB29" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="AC29" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="AD29" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="AE29">
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AG29">
         <v>0</v>
@@ -4725,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>7.099903654955998</v>
+        <v>126.351473625</v>
       </c>
       <c r="AJ29">
         <v>0</v>
@@ -4734,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="AL29" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:38">
@@ -4769,88 +4676,88 @@
         <v>41</v>
       </c>
       <c r="K30">
-        <v>2090120</v>
+        <v>2090830</v>
       </c>
       <c r="L30" t="s">
         <v>70</v>
       </c>
       <c r="M30" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="N30">
         <v>7</v>
       </c>
       <c r="O30" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="P30">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q30" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="R30" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="S30" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="T30">
-        <v>6.070861499999998</v>
+        <v>4.710037</v>
       </c>
       <c r="U30" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V30">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="X30" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>312</v>
+        <v>272</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
       </c>
       <c r="Z30">
         <v>0</v>
       </c>
       <c r="AA30" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="AB30" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="AC30" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="AD30" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="AE30">
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG30">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH30">
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>18.21258449999999</v>
+        <v>23.550185</v>
       </c>
       <c r="AJ30">
-        <v>-12.141723</v>
+        <v>0</v>
       </c>
       <c r="AK30">
-        <v>-16.18</v>
+        <v>0</v>
       </c>
       <c r="AL30" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:38">
@@ -4885,79 +4792,79 @@
         <v>41</v>
       </c>
       <c r="K31">
-        <v>2090168</v>
+        <v>2090885</v>
       </c>
       <c r="L31" t="s">
         <v>71</v>
       </c>
       <c r="M31" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N31">
         <v>7</v>
       </c>
       <c r="O31" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="P31">
         <v>72</v>
       </c>
       <c r="Q31" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="R31" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="S31" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="T31">
-        <v>3.743298</v>
+        <v>4.482135</v>
       </c>
       <c r="U31" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V31">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="X31" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="Y31" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="Z31">
         <v>0</v>
       </c>
       <c r="AA31" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="AB31" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="AC31" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="AD31" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="AE31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF31">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AG31">
         <v>0</v>
       </c>
       <c r="AH31">
-        <v>11.229894</v>
+        <v>8.964269999999999</v>
       </c>
       <c r="AI31">
-        <v>97.32574799999999</v>
+        <v>0</v>
       </c>
       <c r="AJ31">
         <v>0</v>
@@ -4966,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="AL31" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:38">
@@ -5001,46 +4908,46 @@
         <v>41</v>
       </c>
       <c r="K32">
-        <v>2090366</v>
+        <v>2091390</v>
       </c>
       <c r="L32" t="s">
         <v>72</v>
       </c>
       <c r="M32" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="N32">
         <v>7</v>
       </c>
       <c r="O32" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="P32">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q32" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="R32" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="S32" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="T32">
-        <v>5.170655655</v>
+        <v>6.811628</v>
       </c>
       <c r="U32" t="s">
-        <v>302</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
+        <v>271</v>
+      </c>
+      <c r="V32" t="s">
+        <v>276</v>
       </c>
       <c r="W32" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="X32" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -5049,16 +4956,16 @@
         <v>0</v>
       </c>
       <c r="AA32" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="AB32" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="AC32" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="AD32" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="AE32">
         <v>0</v>
@@ -5073,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="AI32">
-        <v>10.34131131</v>
+        <v>13.623256</v>
       </c>
       <c r="AJ32">
         <v>0</v>
@@ -5082,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="AL32" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:38">
@@ -5117,88 +5024,88 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>2090397</v>
+        <v>2091482</v>
       </c>
       <c r="L33" t="s">
         <v>73</v>
       </c>
       <c r="M33" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="N33">
         <v>7</v>
       </c>
       <c r="O33" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="P33">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q33" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="R33" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="S33" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="T33">
-        <v>5.840643929999999</v>
+        <v>2.962757688</v>
       </c>
       <c r="U33" t="s">
-        <v>302</v>
-      </c>
-      <c r="V33" t="s">
-        <v>306</v>
+        <v>271</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="X33" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>311</v>
+        <v>271</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
       </c>
       <c r="Z33">
         <v>0</v>
       </c>
       <c r="AA33" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="AB33" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="AC33" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="AD33" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="AE33">
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG33">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="AH33">
         <v>0</v>
       </c>
       <c r="AI33">
-        <v>29.20321964999999</v>
+        <v>2.962757688</v>
       </c>
       <c r="AJ33">
-        <v>-40.88450750999999</v>
+        <v>0</v>
       </c>
       <c r="AK33">
-        <v>-61.04</v>
+        <v>0</v>
       </c>
       <c r="AL33" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:38">
@@ -5233,79 +5140,79 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>2090403</v>
+        <v>2091505</v>
       </c>
       <c r="L34" t="s">
         <v>74</v>
       </c>
       <c r="M34" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="N34">
         <v>7</v>
       </c>
       <c r="O34" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="P34">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Q34" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="R34" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="S34" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="T34">
-        <v>17.96424</v>
+        <v>7.235165775599999</v>
       </c>
       <c r="U34" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V34">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="X34" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>311</v>
+        <v>271</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="AB34" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="AC34" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="AD34" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="AE34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF34">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AG34">
         <v>0</v>
       </c>
       <c r="AH34">
-        <v>35.92847999999999</v>
+        <v>0</v>
       </c>
       <c r="AI34">
-        <v>161.67816</v>
+        <v>7.235165775599999</v>
       </c>
       <c r="AJ34">
         <v>0</v>
@@ -5314,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="AL34" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:38">
@@ -5349,79 +5256,79 @@
         <v>41</v>
       </c>
       <c r="K35">
-        <v>2090519</v>
+        <v>2091529</v>
       </c>
       <c r="L35" t="s">
         <v>75</v>
       </c>
       <c r="M35" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="N35">
         <v>7</v>
       </c>
       <c r="O35" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="P35">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q35" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="R35" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="S35" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="T35">
-        <v>5.6261228</v>
+        <v>3.28389</v>
       </c>
       <c r="U35" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="X35" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>311</v>
+        <v>271</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="AB35" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="AC35" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="AD35" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="AE35">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AF35">
-        <v>181</v>
+        <v>13</v>
       </c>
       <c r="AG35">
         <v>0</v>
       </c>
       <c r="AH35">
-        <v>90.0179648</v>
+        <v>0</v>
       </c>
       <c r="AI35">
-        <v>1018.3282268</v>
+        <v>42.69057</v>
       </c>
       <c r="AJ35">
         <v>0</v>
@@ -5430,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="AL35" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:38">
@@ -5465,79 +5372,79 @@
         <v>41</v>
       </c>
       <c r="K36">
-        <v>2090526</v>
+        <v>2091543</v>
       </c>
       <c r="L36" t="s">
         <v>76</v>
       </c>
       <c r="M36" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="N36">
         <v>7</v>
       </c>
       <c r="O36" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="P36">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q36" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="R36" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="S36" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="T36">
-        <v>4.802525159999999</v>
+        <v>3.28389</v>
       </c>
       <c r="U36" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="V36">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="X36" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>311</v>
+        <v>271</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="AB36" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="AC36" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="AD36" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="AE36">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AF36">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="AG36">
         <v>0</v>
       </c>
       <c r="AH36">
-        <v>0</v>
+        <v>52.54224</v>
       </c>
       <c r="AI36">
-        <v>4.802525159999999</v>
+        <v>594.38409</v>
       </c>
       <c r="AJ36">
         <v>0</v>
@@ -5546,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="AL36" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:38">
@@ -5581,46 +5488,46 @@
         <v>41</v>
       </c>
       <c r="K37">
-        <v>2090588</v>
+        <v>2091604</v>
       </c>
       <c r="L37" t="s">
         <v>77</v>
       </c>
       <c r="M37" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="N37">
         <v>7</v>
       </c>
       <c r="O37" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="P37">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q37" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="R37" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="S37" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="T37">
-        <v>7.536237890399999</v>
+        <v>8.019070000000001</v>
       </c>
       <c r="U37" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V37">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="X37" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -5628,17 +5535,17 @@
       <c r="Z37">
         <v>0</v>
       </c>
-      <c r="AA37">
-        <v>0</v>
+      <c r="AA37" t="s">
+        <v>284</v>
       </c>
       <c r="AB37" t="s">
-        <v>319</v>
-      </c>
-      <c r="AC37">
-        <v>0</v>
-      </c>
-      <c r="AD37">
-        <v>0</v>
+        <v>288</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>293</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>297</v>
       </c>
       <c r="AE37">
         <v>0</v>
@@ -5653,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="AI37">
-        <v>15.0724757808</v>
+        <v>16.03814</v>
       </c>
       <c r="AJ37">
         <v>0</v>
@@ -5662,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AL37" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:38">
@@ -5697,46 +5604,46 @@
         <v>41</v>
       </c>
       <c r="K38">
-        <v>2090663</v>
+        <v>2091628</v>
       </c>
       <c r="L38" t="s">
         <v>78</v>
       </c>
       <c r="M38" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="N38">
         <v>7</v>
       </c>
       <c r="O38" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="P38">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q38" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="R38" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="S38" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="T38">
-        <v>10.368708</v>
+        <v>13.001141</v>
       </c>
       <c r="U38" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V38">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="X38" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -5744,41 +5651,41 @@
       <c r="Z38">
         <v>0</v>
       </c>
-      <c r="AA38">
-        <v>0</v>
+      <c r="AA38" t="s">
+        <v>286</v>
       </c>
       <c r="AB38" t="s">
-        <v>319</v>
-      </c>
-      <c r="AC38">
-        <v>0</v>
-      </c>
-      <c r="AD38">
-        <v>0</v>
+        <v>290</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>298</v>
       </c>
       <c r="AE38">
         <v>1</v>
       </c>
       <c r="AF38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG38">
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="AH38">
-        <v>10.368708</v>
+        <v>13.001141</v>
       </c>
       <c r="AI38">
-        <v>10.368708</v>
+        <v>26.002282</v>
       </c>
       <c r="AJ38">
-        <v>-20.737416</v>
+        <v>-130.01141</v>
       </c>
       <c r="AK38">
-        <v>-27.64</v>
+        <v>-130</v>
       </c>
       <c r="AL38" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:38">
@@ -5813,70 +5720,70 @@
         <v>41</v>
       </c>
       <c r="K39">
-        <v>2090724</v>
+        <v>2091642</v>
       </c>
       <c r="L39" t="s">
         <v>79</v>
       </c>
       <c r="M39" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="N39">
         <v>7</v>
       </c>
       <c r="O39" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="P39">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Q39" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="R39" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="S39" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="T39">
-        <v>9.719344124999999</v>
+        <v>5.7668505</v>
       </c>
       <c r="U39" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V39">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="X39" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>312</v>
+        <v>272</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="AB39" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="AC39" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="AD39" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="AE39">
         <v>0</v>
       </c>
       <c r="AF39">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG39">
         <v>0</v>
@@ -5885,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="AI39">
-        <v>126.351473625</v>
+        <v>63.4353555</v>
       </c>
       <c r="AJ39">
         <v>0</v>
@@ -5894,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="AL39" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:38">
@@ -5929,79 +5836,79 @@
         <v>41</v>
       </c>
       <c r="K40">
-        <v>2090830</v>
+        <v>2092300</v>
       </c>
       <c r="L40" t="s">
         <v>80</v>
       </c>
       <c r="M40" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="N40">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="O40" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="P40">
-        <v>73</v>
+        <v>822</v>
       </c>
       <c r="Q40" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="R40" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="S40" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="T40">
-        <v>4.710037</v>
+        <v>3.08448</v>
       </c>
       <c r="U40" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V40">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="X40" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
-      <c r="Z40">
-        <v>0</v>
+      <c r="Z40" t="s">
+        <v>282</v>
       </c>
       <c r="AA40" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="AB40" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="AC40" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="AD40" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="AE40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG40">
         <v>0</v>
       </c>
       <c r="AH40">
-        <v>0</v>
+        <v>9.253440000000001</v>
       </c>
       <c r="AI40">
-        <v>23.550185</v>
+        <v>0</v>
       </c>
       <c r="AJ40">
         <v>0</v>
@@ -6010,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="AL40" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:38">
@@ -6045,79 +5952,79 @@
         <v>41</v>
       </c>
       <c r="K41">
-        <v>2090885</v>
+        <v>2092492</v>
       </c>
       <c r="L41" t="s">
         <v>81</v>
       </c>
       <c r="M41" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="N41">
         <v>7</v>
       </c>
       <c r="O41" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="P41">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q41" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="R41" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="S41" t="s">
+        <v>251</v>
+      </c>
+      <c r="T41">
+        <v>4.74</v>
+      </c>
+      <c r="U41" t="s">
+        <v>271</v>
+      </c>
+      <c r="V41" t="s">
+        <v>277</v>
+      </c>
+      <c r="W41" t="s">
+        <v>271</v>
+      </c>
+      <c r="X41" t="s">
         <v>272</v>
       </c>
-      <c r="T41">
-        <v>4.482135</v>
-      </c>
-      <c r="U41" t="s">
-        <v>302</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41" t="s">
-        <v>302</v>
-      </c>
-      <c r="X41" t="s">
-        <v>303</v>
-      </c>
       <c r="Y41" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="AB41" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="AC41" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="AD41" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="AE41">
+        <v>1</v>
+      </c>
+      <c r="AF41">
         <v>2</v>
       </c>
-      <c r="AF41">
-        <v>0</v>
-      </c>
       <c r="AG41">
         <v>0</v>
       </c>
       <c r="AH41">
-        <v>8.964269999999999</v>
+        <v>4.74</v>
       </c>
       <c r="AI41">
-        <v>0</v>
+        <v>9.48</v>
       </c>
       <c r="AJ41">
         <v>0</v>
@@ -6126,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="AL41" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:38">
@@ -6161,46 +6068,46 @@
         <v>41</v>
       </c>
       <c r="K42">
-        <v>2091390</v>
+        <v>2092553</v>
       </c>
       <c r="L42" t="s">
         <v>82</v>
       </c>
       <c r="M42" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N42">
         <v>7</v>
       </c>
       <c r="O42" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="P42">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="Q42" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="R42" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="S42" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="T42">
-        <v>6.811628</v>
+        <v>9.15</v>
       </c>
       <c r="U42" t="s">
-        <v>302</v>
-      </c>
-      <c r="V42" t="s">
-        <v>307</v>
+        <v>272</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="X42" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="Y42">
         <v>0</v>
@@ -6209,22 +6116,22 @@
         <v>0</v>
       </c>
       <c r="AA42" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="AB42" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="AC42" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="AD42" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="AE42">
         <v>0</v>
       </c>
       <c r="AF42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG42">
         <v>0</v>
@@ -6233,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="AI42">
-        <v>13.623256</v>
+        <v>9.15</v>
       </c>
       <c r="AJ42">
         <v>0</v>
@@ -6242,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="AL42" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:38">
@@ -6277,46 +6184,46 @@
         <v>41</v>
       </c>
       <c r="K43">
-        <v>2091482</v>
+        <v>2092812</v>
       </c>
       <c r="L43" t="s">
         <v>83</v>
       </c>
       <c r="M43" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="N43">
         <v>7</v>
       </c>
       <c r="O43" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="P43">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q43" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="R43" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="S43" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="T43">
-        <v>2.962757688</v>
+        <v>4.84</v>
       </c>
       <c r="U43" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V43">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="X43" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="Y43">
         <v>0</v>
@@ -6325,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="AA43" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="AB43" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="AC43" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="AD43" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="AE43">
         <v>0</v>
       </c>
       <c r="AF43">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AG43">
         <v>0</v>
@@ -6349,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="AI43">
-        <v>2.962757688</v>
+        <v>58.08</v>
       </c>
       <c r="AJ43">
         <v>0</v>
@@ -6358,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="AL43" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:38">
@@ -6393,70 +6300,70 @@
         <v>41</v>
       </c>
       <c r="K44">
-        <v>2091505</v>
+        <v>2093136</v>
       </c>
       <c r="L44" t="s">
         <v>84</v>
       </c>
       <c r="M44" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="N44">
         <v>7</v>
       </c>
       <c r="O44" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="P44">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q44" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="R44" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="S44" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="T44">
-        <v>7.235165775599999</v>
+        <v>13.86</v>
       </c>
       <c r="U44" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V44">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="X44" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y44">
-        <v>0</v>
+        <v>272</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>280</v>
       </c>
       <c r="Z44">
         <v>0</v>
       </c>
       <c r="AA44" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="AB44" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="AC44" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="AD44" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="AE44">
         <v>0</v>
       </c>
       <c r="AF44">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AG44">
         <v>0</v>
@@ -6465,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="AI44">
-        <v>7.235165775599999</v>
+        <v>138.6</v>
       </c>
       <c r="AJ44">
         <v>0</v>
@@ -6474,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AL44" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:38">
@@ -6509,70 +6416,70 @@
         <v>41</v>
       </c>
       <c r="K45">
-        <v>2091529</v>
+        <v>2094191</v>
       </c>
       <c r="L45" t="s">
         <v>85</v>
       </c>
       <c r="M45" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="N45">
         <v>7</v>
       </c>
       <c r="O45" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="P45">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Q45" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="R45" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="S45" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="T45">
-        <v>3.28389</v>
+        <v>14.4415</v>
       </c>
       <c r="U45" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V45">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="X45" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y45">
-        <v>0</v>
+        <v>271</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>281</v>
       </c>
       <c r="Z45">
         <v>0</v>
       </c>
       <c r="AA45" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="AB45" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="AC45" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="AD45" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="AE45">
         <v>0</v>
       </c>
       <c r="AF45">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AG45">
         <v>0</v>
@@ -6581,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="AI45">
-        <v>42.69057</v>
+        <v>14.4415</v>
       </c>
       <c r="AJ45">
         <v>0</v>
@@ -6590,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="AL45" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="1:38">
@@ -6625,88 +6532,88 @@
         <v>41</v>
       </c>
       <c r="K46">
-        <v>2091543</v>
+        <v>2094221</v>
       </c>
       <c r="L46" t="s">
         <v>86</v>
       </c>
       <c r="M46" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="N46">
         <v>7</v>
       </c>
       <c r="O46" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="P46">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q46" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="R46" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="S46" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="T46">
-        <v>3.28389</v>
+        <v>14.4415</v>
       </c>
       <c r="U46" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="V46">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="X46" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y46">
-        <v>0</v>
+        <v>272</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>281</v>
       </c>
       <c r="Z46">
         <v>0</v>
       </c>
       <c r="AA46" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="AB46" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="AC46" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="AD46" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="AE46">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AF46">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="AG46">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH46">
-        <v>52.54224</v>
+        <v>0</v>
       </c>
       <c r="AI46">
-        <v>594.38409</v>
+        <v>14.4415</v>
       </c>
       <c r="AJ46">
-        <v>0</v>
+        <v>-28.883</v>
       </c>
       <c r="AK46">
-        <v>0</v>
+        <v>-24.76</v>
       </c>
       <c r="AL46" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:38">
@@ -6741,88 +6648,88 @@
         <v>41</v>
       </c>
       <c r="K47">
-        <v>2091604</v>
+        <v>2092287</v>
       </c>
       <c r="L47" t="s">
         <v>87</v>
       </c>
       <c r="M47" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="N47">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="O47" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="P47">
-        <v>72</v>
+        <v>822</v>
       </c>
       <c r="Q47" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="R47" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="S47" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="T47">
-        <v>8.019070000000001</v>
+        <v>4.99985</v>
       </c>
       <c r="U47" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V47">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="X47" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="Y47">
         <v>0</v>
       </c>
-      <c r="Z47">
-        <v>0</v>
+      <c r="Z47" t="s">
+        <v>282</v>
       </c>
       <c r="AA47" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="AB47" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="AC47" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="AD47" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="AE47">
         <v>0</v>
       </c>
       <c r="AF47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG47">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AH47">
         <v>0</v>
       </c>
       <c r="AI47">
-        <v>16.03814</v>
+        <v>0</v>
       </c>
       <c r="AJ47">
-        <v>0</v>
+        <v>-14.99955</v>
       </c>
       <c r="AK47">
-        <v>0</v>
+        <v>-12.45</v>
       </c>
       <c r="AL47" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:38">
@@ -6857,88 +6764,88 @@
         <v>41</v>
       </c>
       <c r="K48">
-        <v>2091628</v>
+        <v>2009531</v>
       </c>
       <c r="L48" t="s">
         <v>88</v>
       </c>
       <c r="M48" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="N48">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="O48" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="P48">
-        <v>75</v>
+        <v>824</v>
       </c>
       <c r="Q48" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="R48" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="S48" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="T48">
-        <v>13.001141</v>
+        <v>5.170125</v>
       </c>
       <c r="U48" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V48">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="X48" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="Y48">
         <v>0</v>
       </c>
-      <c r="Z48">
-        <v>0</v>
+      <c r="Z48" t="s">
+        <v>282</v>
       </c>
       <c r="AA48" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="AB48" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="AC48" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="AD48" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="AE48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG48">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="AH48">
-        <v>13.001141</v>
+        <v>0</v>
       </c>
       <c r="AI48">
-        <v>26.002282</v>
+        <v>0</v>
       </c>
       <c r="AJ48">
-        <v>-130.01141</v>
+        <v>-5.170125</v>
       </c>
       <c r="AK48">
-        <v>-130</v>
+        <v>-5.52</v>
       </c>
       <c r="AL48" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="49" spans="1:38">
@@ -6973,88 +6880,88 @@
         <v>41</v>
       </c>
       <c r="K49">
-        <v>2091642</v>
+        <v>2010658</v>
       </c>
       <c r="L49" t="s">
         <v>89</v>
       </c>
       <c r="M49" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="N49">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="O49" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="P49">
-        <v>70</v>
+        <v>824</v>
       </c>
       <c r="Q49" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="R49" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="S49" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="T49">
-        <v>5.7668505</v>
+        <v>2.64252</v>
       </c>
       <c r="U49" t="s">
-        <v>302</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
+        <v>271</v>
+      </c>
+      <c r="V49" t="s">
+        <v>278</v>
       </c>
       <c r="W49" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="X49" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="Y49">
         <v>0</v>
       </c>
-      <c r="Z49">
-        <v>0</v>
+      <c r="Z49" t="s">
+        <v>283</v>
       </c>
       <c r="AA49" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="AB49" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="AC49" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="AD49" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="AE49">
         <v>0</v>
       </c>
       <c r="AF49">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG49">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AH49">
         <v>0</v>
       </c>
       <c r="AI49">
-        <v>63.4353555</v>
+        <v>0</v>
       </c>
       <c r="AJ49">
-        <v>0</v>
+        <v>-7.927560000000001</v>
       </c>
       <c r="AK49">
-        <v>0</v>
+        <v>-11.19</v>
       </c>
       <c r="AL49" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="1:38">
@@ -7089,88 +6996,88 @@
         <v>41</v>
       </c>
       <c r="K50">
-        <v>2091703</v>
+        <v>2018188</v>
       </c>
       <c r="L50" t="s">
         <v>90</v>
       </c>
       <c r="M50" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="N50">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="O50" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="P50">
-        <v>78</v>
+        <v>824</v>
       </c>
       <c r="Q50" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="R50" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="S50" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="T50">
-        <v>5.390988999999999</v>
+        <v>5.365904</v>
       </c>
       <c r="U50" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V50">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="X50" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="Y50">
         <v>0</v>
       </c>
-      <c r="Z50">
-        <v>0</v>
+      <c r="Z50" t="s">
+        <v>283</v>
       </c>
       <c r="AA50" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="AB50" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="AC50" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="AD50" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="AE50">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF50">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AG50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH50">
-        <v>53.90988999999999</v>
+        <v>0</v>
       </c>
       <c r="AI50">
-        <v>64.691868</v>
+        <v>0</v>
       </c>
       <c r="AJ50">
-        <v>0</v>
+        <v>-5.365904</v>
       </c>
       <c r="AK50">
-        <v>0</v>
+        <v>-6.32</v>
       </c>
       <c r="AL50" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="1:38">
@@ -7205,88 +7112,88 @@
         <v>41</v>
       </c>
       <c r="K51">
-        <v>2091727</v>
+        <v>2019433</v>
       </c>
       <c r="L51" t="s">
         <v>91</v>
       </c>
       <c r="M51" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="N51">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="O51" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="P51">
-        <v>78</v>
+        <v>824</v>
       </c>
       <c r="Q51" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="R51" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="S51" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="T51">
-        <v>15.399705</v>
+        <v>8.976866666666668</v>
       </c>
       <c r="U51" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V51">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="X51" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="Y51">
         <v>0</v>
       </c>
-      <c r="Z51">
-        <v>0</v>
+      <c r="Z51" t="s">
+        <v>283</v>
       </c>
       <c r="AA51" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="AB51" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="AC51" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="AD51" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="AE51">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF51">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="AG51">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AH51">
-        <v>61.59881999999999</v>
+        <v>0</v>
       </c>
       <c r="AI51">
-        <v>2094.35988</v>
+        <v>0</v>
       </c>
       <c r="AJ51">
-        <v>0</v>
+        <v>-26.93060000000001</v>
       </c>
       <c r="AK51">
-        <v>0</v>
+        <v>-38.04</v>
       </c>
       <c r="AL51" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" spans="1:38">
@@ -7321,88 +7228,88 @@
         <v>41</v>
       </c>
       <c r="K52">
-        <v>2092300</v>
+        <v>2090502</v>
       </c>
       <c r="L52" t="s">
         <v>92</v>
       </c>
       <c r="M52" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="N52">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="O52" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="P52">
-        <v>822</v>
+        <v>71</v>
       </c>
       <c r="Q52" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R52" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="S52" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="T52">
-        <v>3.08448</v>
+        <v>4.67281584</v>
       </c>
       <c r="U52" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V52">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="X52" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y52">
-        <v>0</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>313</v>
+        <v>271</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
       </c>
       <c r="AA52" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="AB52" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="AC52" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="AD52" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="AE52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
       </c>
       <c r="AG52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH52">
-        <v>9.253440000000001</v>
+        <v>0</v>
       </c>
       <c r="AI52">
         <v>0</v>
       </c>
       <c r="AJ52">
-        <v>0</v>
+        <v>-4.67281584</v>
       </c>
       <c r="AK52">
-        <v>0</v>
+        <v>-6.97</v>
       </c>
       <c r="AL52" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:38">
@@ -7437,88 +7344,88 @@
         <v>41</v>
       </c>
       <c r="K53">
-        <v>2092492</v>
+        <v>2093969</v>
       </c>
       <c r="L53" t="s">
         <v>93</v>
       </c>
       <c r="M53" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="N53">
         <v>7</v>
       </c>
       <c r="O53" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="P53">
         <v>71</v>
       </c>
       <c r="Q53" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="R53" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="S53" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="T53">
-        <v>4.74</v>
+        <v>3.488553</v>
       </c>
       <c r="U53" t="s">
-        <v>302</v>
-      </c>
-      <c r="V53" t="s">
-        <v>308</v>
+        <v>271</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="X53" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>312</v>
+        <v>272</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
       </c>
       <c r="Z53">
         <v>0</v>
       </c>
       <c r="AA53" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="AB53" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="AC53" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="AD53" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="AE53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG53">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AH53">
-        <v>4.74</v>
+        <v>0</v>
       </c>
       <c r="AI53">
-        <v>9.48</v>
+        <v>0</v>
       </c>
       <c r="AJ53">
-        <v>0</v>
+        <v>-13.954212</v>
       </c>
       <c r="AK53">
-        <v>0</v>
+        <v>-13.96</v>
       </c>
       <c r="AL53" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54" spans="1:38">
@@ -7553,88 +7460,88 @@
         <v>41</v>
       </c>
       <c r="K54">
-        <v>2092553</v>
+        <v>2090496</v>
       </c>
       <c r="L54" t="s">
         <v>94</v>
       </c>
       <c r="M54" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="N54">
         <v>7</v>
       </c>
       <c r="O54" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="P54">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="Q54" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="R54" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="S54" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="T54">
-        <v>9.15</v>
+        <v>4.468707039999999</v>
       </c>
       <c r="U54" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="V54">
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="X54" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y54">
-        <v>0</v>
+        <v>271</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>280</v>
       </c>
       <c r="Z54">
         <v>0</v>
       </c>
       <c r="AA54" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="AB54" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="AC54" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="AD54" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="AE54">
         <v>0</v>
       </c>
       <c r="AF54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG54">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH54">
         <v>0</v>
       </c>
       <c r="AI54">
-        <v>9.15</v>
+        <v>0</v>
       </c>
       <c r="AJ54">
-        <v>0</v>
+        <v>-8.937414079999998</v>
       </c>
       <c r="AK54">
-        <v>0</v>
+        <v>-13.34</v>
       </c>
       <c r="AL54" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="55" spans="1:38">
@@ -7669,88 +7576,88 @@
         <v>41</v>
       </c>
       <c r="K55">
-        <v>2092812</v>
+        <v>2090175</v>
       </c>
       <c r="L55" t="s">
         <v>95</v>
       </c>
       <c r="M55" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="N55">
         <v>7</v>
       </c>
       <c r="O55" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="P55">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q55" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="R55" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="S55" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="T55">
-        <v>4.84</v>
+        <v>3.983814</v>
       </c>
       <c r="U55" t="s">
-        <v>302</v>
-      </c>
-      <c r="V55">
-        <v>0</v>
+        <v>271</v>
+      </c>
+      <c r="V55" t="s">
+        <v>279</v>
       </c>
       <c r="W55" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="X55" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y55">
-        <v>0</v>
+        <v>272</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>281</v>
       </c>
       <c r="Z55">
         <v>0</v>
       </c>
       <c r="AA55" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="AB55" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="AC55" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="AD55" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="AE55">
         <v>0</v>
       </c>
       <c r="AF55">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AG55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH55">
         <v>0</v>
       </c>
       <c r="AI55">
-        <v>58.08</v>
+        <v>0</v>
       </c>
       <c r="AJ55">
-        <v>0</v>
+        <v>-3.983814</v>
       </c>
       <c r="AK55">
-        <v>0</v>
+        <v>-3.98</v>
       </c>
       <c r="AL55" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:38">
@@ -7785,88 +7692,88 @@
         <v>41</v>
       </c>
       <c r="K56">
-        <v>2093136</v>
+        <v>2090182</v>
       </c>
       <c r="L56" t="s">
         <v>96</v>
       </c>
       <c r="M56" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="N56">
         <v>7</v>
       </c>
       <c r="O56" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="P56">
         <v>71</v>
       </c>
       <c r="Q56" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="R56" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="S56" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="T56">
-        <v>13.86</v>
+        <v>5.131129125</v>
       </c>
       <c r="U56" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V56">
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="X56" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="Y56" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="Z56">
         <v>0</v>
       </c>
       <c r="AA56" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="AB56" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="AC56" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="AD56" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="AE56">
         <v>0</v>
       </c>
       <c r="AF56">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH56">
         <v>0</v>
       </c>
       <c r="AI56">
-        <v>138.6</v>
+        <v>0</v>
       </c>
       <c r="AJ56">
-        <v>0</v>
+        <v>-5.131129125</v>
       </c>
       <c r="AK56">
-        <v>0</v>
+        <v>-6.84</v>
       </c>
       <c r="AL56" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:38">
@@ -7901,88 +7808,88 @@
         <v>41</v>
       </c>
       <c r="K57">
-        <v>2094191</v>
+        <v>2090137</v>
       </c>
       <c r="L57" t="s">
         <v>97</v>
       </c>
       <c r="M57" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="N57">
         <v>7</v>
       </c>
       <c r="O57" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="P57">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q57" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="R57" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="S57" t="s">
+        <v>267</v>
+      </c>
+      <c r="T57">
+        <v>5.419725375000001</v>
+      </c>
+      <c r="U57" t="s">
+        <v>271</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>271</v>
+      </c>
+      <c r="X57" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB57" t="s">
         <v>288</v>
       </c>
-      <c r="T57">
-        <v>14.4415</v>
-      </c>
-      <c r="U57" t="s">
-        <v>302</v>
-      </c>
-      <c r="V57">
-        <v>0</v>
-      </c>
-      <c r="W57" t="s">
-        <v>302</v>
-      </c>
-      <c r="X57" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z57">
-        <v>0</v>
-      </c>
-      <c r="AA57" t="s">
-        <v>315</v>
-      </c>
-      <c r="AB57" t="s">
-        <v>319</v>
-      </c>
       <c r="AC57" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="AD57" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="AE57">
         <v>0</v>
       </c>
       <c r="AF57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG57">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AH57">
         <v>0</v>
       </c>
       <c r="AI57">
-        <v>14.4415</v>
+        <v>0</v>
       </c>
       <c r="AJ57">
-        <v>0</v>
+        <v>-27.09862687500001</v>
       </c>
       <c r="AK57">
-        <v>0</v>
+        <v>-36.15</v>
       </c>
       <c r="AL57" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:38">
@@ -8017,88 +7924,88 @@
         <v>41</v>
       </c>
       <c r="K58">
-        <v>2094214</v>
+        <v>2094351</v>
       </c>
       <c r="L58" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M58" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="N58">
         <v>7</v>
       </c>
       <c r="O58" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="P58">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="Q58" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="R58" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="S58" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="T58">
-        <v>13.262584</v>
+        <v>6.762378999999999</v>
       </c>
       <c r="U58" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V58">
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="X58" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>312</v>
+        <v>272</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
       </c>
       <c r="Z58">
         <v>0</v>
       </c>
       <c r="AA58" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="AB58" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="AC58" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="AD58" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="AE58">
         <v>0</v>
       </c>
       <c r="AF58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG58">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="AH58">
         <v>0</v>
       </c>
       <c r="AI58">
-        <v>13.262584</v>
+        <v>0</v>
       </c>
       <c r="AJ58">
-        <v>-53.05033599999999</v>
+        <v>-13.524758</v>
       </c>
       <c r="AK58">
-        <v>-53.04</v>
+        <v>-13.52</v>
       </c>
       <c r="AL58" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:38">
@@ -8133,70 +8040,70 @@
         <v>41</v>
       </c>
       <c r="K59">
-        <v>2094221</v>
+        <v>2090663</v>
       </c>
       <c r="L59" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M59" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="N59">
         <v>7</v>
       </c>
       <c r="O59" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="P59">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q59" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="R59" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="S59" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="T59">
-        <v>14.4415</v>
+        <v>10.368708</v>
       </c>
       <c r="U59" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V59">
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="X59" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>312</v>
+        <v>272</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
       </c>
       <c r="Z59">
         <v>0</v>
       </c>
-      <c r="AA59" t="s">
-        <v>315</v>
+      <c r="AA59">
+        <v>0</v>
       </c>
       <c r="AB59" t="s">
-        <v>319</v>
-      </c>
-      <c r="AC59" t="s">
-        <v>325</v>
-      </c>
-      <c r="AD59" t="s">
-        <v>329</v>
+        <v>288</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
       </c>
       <c r="AE59">
         <v>0</v>
       </c>
       <c r="AF59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG59">
         <v>-2</v>
@@ -8205,16 +8112,16 @@
         <v>0</v>
       </c>
       <c r="AI59">
-        <v>14.4415</v>
+        <v>0</v>
       </c>
       <c r="AJ59">
-        <v>-28.883</v>
+        <v>-20.737416</v>
       </c>
       <c r="AK59">
-        <v>-24.76</v>
+        <v>-27.64</v>
       </c>
       <c r="AL59" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:38">
@@ -8249,64 +8156,64 @@
         <v>41</v>
       </c>
       <c r="K60">
-        <v>2092287</v>
+        <v>2094214</v>
       </c>
       <c r="L60" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="M60" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N60">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="O60" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="P60">
-        <v>822</v>
+        <v>171</v>
       </c>
       <c r="Q60" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="R60" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="S60" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="T60">
-        <v>4.99985</v>
+        <v>13.262584</v>
       </c>
       <c r="U60" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V60">
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="X60" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y60">
-        <v>0</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>313</v>
+        <v>272</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
       </c>
       <c r="AA60" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="AB60" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="AC60" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="AD60" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="AE60">
         <v>0</v>
@@ -8315,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="AG60">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="AH60">
         <v>0</v>
@@ -8324,13 +8231,13 @@
         <v>0</v>
       </c>
       <c r="AJ60">
-        <v>-14.99955</v>
+        <v>-53.05033599999999</v>
       </c>
       <c r="AK60">
-        <v>-12.45</v>
+        <v>-53.04</v>
       </c>
       <c r="AL60" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="61" spans="1:38">
@@ -8365,64 +8272,64 @@
         <v>41</v>
       </c>
       <c r="K61">
-        <v>2009531</v>
+        <v>2023535</v>
       </c>
       <c r="L61" t="s">
         <v>100</v>
       </c>
       <c r="M61" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N61">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="O61" t="s">
+        <v>141</v>
+      </c>
+      <c r="P61">
+        <v>135</v>
+      </c>
+      <c r="Q61" t="s">
         <v>154</v>
       </c>
-      <c r="P61">
-        <v>824</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>158</v>
-      </c>
       <c r="R61" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="S61" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="T61">
-        <v>5.170125</v>
+        <v>12.03357142857143</v>
       </c>
       <c r="U61" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="V61">
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="X61" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="Y61">
         <v>0</v>
       </c>
-      <c r="Z61" t="s">
-        <v>313</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>316</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>320</v>
-      </c>
-      <c r="AC61" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD61" t="s">
-        <v>328</v>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <v>0</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
       </c>
       <c r="AE61">
         <v>0</v>
@@ -8440,1173 +8347,13 @@
         <v>0</v>
       </c>
       <c r="AJ61">
-        <v>-5.170125</v>
+        <v>-12.03357142857143</v>
       </c>
       <c r="AK61">
-        <v>-5.52</v>
+        <v>-12.98</v>
       </c>
       <c r="AL61" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="62" spans="1:38">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>91</v>
-      </c>
-      <c r="C62" t="s">
-        <v>37</v>
-      </c>
-      <c r="D62" t="s">
-        <v>38</v>
-      </c>
-      <c r="E62">
-        <v>41</v>
-      </c>
-      <c r="F62" t="s">
-        <v>39</v>
-      </c>
-      <c r="G62">
-        <v>92</v>
-      </c>
-      <c r="H62" t="s">
-        <v>40</v>
-      </c>
-      <c r="I62">
-        <v>9712</v>
-      </c>
-      <c r="J62" t="s">
-        <v>41</v>
-      </c>
-      <c r="K62">
-        <v>2010658</v>
-      </c>
-      <c r="L62" t="s">
-        <v>101</v>
-      </c>
-      <c r="M62" t="s">
-        <v>149</v>
-      </c>
-      <c r="N62">
-        <v>82</v>
-      </c>
-      <c r="O62" t="s">
-        <v>154</v>
-      </c>
-      <c r="P62">
-        <v>824</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>158</v>
-      </c>
-      <c r="R62" t="s">
-        <v>226</v>
-      </c>
-      <c r="S62" t="s">
-        <v>292</v>
-      </c>
-      <c r="T62">
-        <v>2.64252</v>
-      </c>
-      <c r="U62" t="s">
-        <v>302</v>
-      </c>
-      <c r="V62" t="s">
-        <v>309</v>
-      </c>
-      <c r="W62" t="s">
-        <v>303</v>
-      </c>
-      <c r="X62" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y62">
-        <v>0</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>314</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>316</v>
-      </c>
-      <c r="AB62" t="s">
-        <v>320</v>
-      </c>
-      <c r="AC62" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD62" t="s">
-        <v>328</v>
-      </c>
-      <c r="AE62">
-        <v>0</v>
-      </c>
-      <c r="AF62">
-        <v>0</v>
-      </c>
-      <c r="AG62">
-        <v>-3</v>
-      </c>
-      <c r="AH62">
-        <v>0</v>
-      </c>
-      <c r="AI62">
-        <v>0</v>
-      </c>
-      <c r="AJ62">
-        <v>-7.927560000000001</v>
-      </c>
-      <c r="AK62">
-        <v>-11.19</v>
-      </c>
-      <c r="AL62" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="63" spans="1:38">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <v>91</v>
-      </c>
-      <c r="C63" t="s">
-        <v>37</v>
-      </c>
-      <c r="D63" t="s">
-        <v>38</v>
-      </c>
-      <c r="E63">
-        <v>41</v>
-      </c>
-      <c r="F63" t="s">
-        <v>39</v>
-      </c>
-      <c r="G63">
-        <v>92</v>
-      </c>
-      <c r="H63" t="s">
-        <v>40</v>
-      </c>
-      <c r="I63">
-        <v>9712</v>
-      </c>
-      <c r="J63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K63">
-        <v>2019433</v>
-      </c>
-      <c r="L63" t="s">
-        <v>102</v>
-      </c>
-      <c r="M63" t="s">
-        <v>122</v>
-      </c>
-      <c r="N63">
-        <v>82</v>
-      </c>
-      <c r="O63" t="s">
-        <v>154</v>
-      </c>
-      <c r="P63">
-        <v>824</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>158</v>
-      </c>
-      <c r="R63" t="s">
-        <v>227</v>
-      </c>
-      <c r="S63" t="s">
-        <v>293</v>
-      </c>
-      <c r="T63">
-        <v>8.976866666666668</v>
-      </c>
-      <c r="U63" t="s">
-        <v>302</v>
-      </c>
-      <c r="V63">
-        <v>0</v>
-      </c>
-      <c r="W63" t="s">
-        <v>302</v>
-      </c>
-      <c r="X63" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y63">
-        <v>0</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>314</v>
-      </c>
-      <c r="AA63" t="s">
-        <v>316</v>
-      </c>
-      <c r="AB63" t="s">
-        <v>320</v>
-      </c>
-      <c r="AC63" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD63" t="s">
-        <v>327</v>
-      </c>
-      <c r="AE63">
-        <v>0</v>
-      </c>
-      <c r="AF63">
-        <v>0</v>
-      </c>
-      <c r="AG63">
-        <v>-3</v>
-      </c>
-      <c r="AH63">
-        <v>0</v>
-      </c>
-      <c r="AI63">
-        <v>0</v>
-      </c>
-      <c r="AJ63">
-        <v>-26.93060000000001</v>
-      </c>
-      <c r="AK63">
-        <v>-38.04</v>
-      </c>
-      <c r="AL63" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="64" spans="1:38">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>91</v>
-      </c>
-      <c r="C64" t="s">
-        <v>37</v>
-      </c>
-      <c r="D64" t="s">
-        <v>38</v>
-      </c>
-      <c r="E64">
-        <v>41</v>
-      </c>
-      <c r="F64" t="s">
-        <v>39</v>
-      </c>
-      <c r="G64">
-        <v>92</v>
-      </c>
-      <c r="H64" t="s">
-        <v>40</v>
-      </c>
-      <c r="I64">
-        <v>9712</v>
-      </c>
-      <c r="J64" t="s">
-        <v>41</v>
-      </c>
-      <c r="K64">
-        <v>2090502</v>
-      </c>
-      <c r="L64" t="s">
-        <v>103</v>
-      </c>
-      <c r="M64" t="s">
-        <v>137</v>
-      </c>
-      <c r="N64">
-        <v>7</v>
-      </c>
-      <c r="O64" t="s">
-        <v>155</v>
-      </c>
-      <c r="P64">
-        <v>71</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>165</v>
-      </c>
-      <c r="R64" t="s">
-        <v>228</v>
-      </c>
-      <c r="S64" t="s">
-        <v>294</v>
-      </c>
-      <c r="T64">
-        <v>4.67281584</v>
-      </c>
-      <c r="U64" t="s">
-        <v>302</v>
-      </c>
-      <c r="V64">
-        <v>0</v>
-      </c>
-      <c r="W64" t="s">
-        <v>302</v>
-      </c>
-      <c r="X64" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z64">
-        <v>0</v>
-      </c>
-      <c r="AA64" t="s">
-        <v>315</v>
-      </c>
-      <c r="AB64" t="s">
-        <v>319</v>
-      </c>
-      <c r="AC64" t="s">
-        <v>325</v>
-      </c>
-      <c r="AD64" t="s">
-        <v>329</v>
-      </c>
-      <c r="AE64">
-        <v>0</v>
-      </c>
-      <c r="AF64">
-        <v>0</v>
-      </c>
-      <c r="AG64">
-        <v>-1</v>
-      </c>
-      <c r="AH64">
-        <v>0</v>
-      </c>
-      <c r="AI64">
-        <v>0</v>
-      </c>
-      <c r="AJ64">
-        <v>-4.67281584</v>
-      </c>
-      <c r="AK64">
-        <v>-6.97</v>
-      </c>
-      <c r="AL64" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="65" spans="1:38">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>91</v>
-      </c>
-      <c r="C65" t="s">
-        <v>37</v>
-      </c>
-      <c r="D65" t="s">
-        <v>38</v>
-      </c>
-      <c r="E65">
-        <v>41</v>
-      </c>
-      <c r="F65" t="s">
-        <v>39</v>
-      </c>
-      <c r="G65">
-        <v>92</v>
-      </c>
-      <c r="H65" t="s">
-        <v>40</v>
-      </c>
-      <c r="I65">
-        <v>9712</v>
-      </c>
-      <c r="J65" t="s">
-        <v>41</v>
-      </c>
-      <c r="K65">
-        <v>2093969</v>
-      </c>
-      <c r="L65" t="s">
-        <v>104</v>
-      </c>
-      <c r="M65" t="s">
-        <v>150</v>
-      </c>
-      <c r="N65">
-        <v>7</v>
-      </c>
-      <c r="O65" t="s">
-        <v>155</v>
-      </c>
-      <c r="P65">
-        <v>71</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>165</v>
-      </c>
-      <c r="R65" t="s">
-        <v>229</v>
-      </c>
-      <c r="S65" t="s">
-        <v>295</v>
-      </c>
-      <c r="T65">
-        <v>3.488553</v>
-      </c>
-      <c r="U65" t="s">
-        <v>302</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65" t="s">
-        <v>303</v>
-      </c>
-      <c r="X65" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y65">
-        <v>0</v>
-      </c>
-      <c r="Z65">
-        <v>0</v>
-      </c>
-      <c r="AA65" t="s">
-        <v>317</v>
-      </c>
-      <c r="AB65" t="s">
-        <v>321</v>
-      </c>
-      <c r="AC65" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD65" t="s">
-        <v>328</v>
-      </c>
-      <c r="AE65">
-        <v>0</v>
-      </c>
-      <c r="AF65">
-        <v>0</v>
-      </c>
-      <c r="AG65">
-        <v>-4</v>
-      </c>
-      <c r="AH65">
-        <v>0</v>
-      </c>
-      <c r="AI65">
-        <v>0</v>
-      </c>
-      <c r="AJ65">
-        <v>-13.954212</v>
-      </c>
-      <c r="AK65">
-        <v>-13.96</v>
-      </c>
-      <c r="AL65" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="66" spans="1:38">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <v>91</v>
-      </c>
-      <c r="C66" t="s">
-        <v>37</v>
-      </c>
-      <c r="D66" t="s">
-        <v>38</v>
-      </c>
-      <c r="E66">
-        <v>41</v>
-      </c>
-      <c r="F66" t="s">
-        <v>39</v>
-      </c>
-      <c r="G66">
-        <v>92</v>
-      </c>
-      <c r="H66" t="s">
-        <v>40</v>
-      </c>
-      <c r="I66">
-        <v>9712</v>
-      </c>
-      <c r="J66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K66">
-        <v>2090496</v>
-      </c>
-      <c r="L66" t="s">
-        <v>105</v>
-      </c>
-      <c r="M66" t="s">
-        <v>137</v>
-      </c>
-      <c r="N66">
-        <v>7</v>
-      </c>
-      <c r="O66" t="s">
-        <v>155</v>
-      </c>
-      <c r="P66">
-        <v>71</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>165</v>
-      </c>
-      <c r="R66" t="s">
-        <v>230</v>
-      </c>
-      <c r="S66" t="s">
-        <v>296</v>
-      </c>
-      <c r="T66">
-        <v>4.468707039999999</v>
-      </c>
-      <c r="U66" t="s">
-        <v>302</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66" t="s">
-        <v>302</v>
-      </c>
-      <c r="X66" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z66">
-        <v>0</v>
-      </c>
-      <c r="AA66" t="s">
-        <v>315</v>
-      </c>
-      <c r="AB66" t="s">
-        <v>319</v>
-      </c>
-      <c r="AC66" t="s">
-        <v>325</v>
-      </c>
-      <c r="AD66" t="s">
-        <v>329</v>
-      </c>
-      <c r="AE66">
-        <v>0</v>
-      </c>
-      <c r="AF66">
-        <v>0</v>
-      </c>
-      <c r="AG66">
-        <v>-2</v>
-      </c>
-      <c r="AH66">
-        <v>0</v>
-      </c>
-      <c r="AI66">
-        <v>0</v>
-      </c>
-      <c r="AJ66">
-        <v>-8.937414079999998</v>
-      </c>
-      <c r="AK66">
-        <v>-13.34</v>
-      </c>
-      <c r="AL66" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="67" spans="1:38">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67">
-        <v>91</v>
-      </c>
-      <c r="C67" t="s">
-        <v>37</v>
-      </c>
-      <c r="D67" t="s">
-        <v>38</v>
-      </c>
-      <c r="E67">
-        <v>41</v>
-      </c>
-      <c r="F67" t="s">
-        <v>39</v>
-      </c>
-      <c r="G67">
-        <v>92</v>
-      </c>
-      <c r="H67" t="s">
-        <v>40</v>
-      </c>
-      <c r="I67">
-        <v>9712</v>
-      </c>
-      <c r="J67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K67">
-        <v>2090175</v>
-      </c>
-      <c r="L67" t="s">
-        <v>106</v>
-      </c>
-      <c r="M67" t="s">
-        <v>145</v>
-      </c>
-      <c r="N67">
-        <v>7</v>
-      </c>
-      <c r="O67" t="s">
-        <v>155</v>
-      </c>
-      <c r="P67">
-        <v>71</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>165</v>
-      </c>
-      <c r="R67" t="s">
-        <v>231</v>
-      </c>
-      <c r="S67" t="s">
-        <v>297</v>
-      </c>
-      <c r="T67">
-        <v>3.983814</v>
-      </c>
-      <c r="U67" t="s">
-        <v>302</v>
-      </c>
-      <c r="V67" t="s">
-        <v>310</v>
-      </c>
-      <c r="W67" t="s">
-        <v>303</v>
-      </c>
-      <c r="X67" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z67">
-        <v>0</v>
-      </c>
-      <c r="AA67" t="s">
-        <v>315</v>
-      </c>
-      <c r="AB67" t="s">
-        <v>319</v>
-      </c>
-      <c r="AC67" t="s">
-        <v>325</v>
-      </c>
-      <c r="AD67" t="s">
-        <v>329</v>
-      </c>
-      <c r="AE67">
-        <v>0</v>
-      </c>
-      <c r="AF67">
-        <v>0</v>
-      </c>
-      <c r="AG67">
-        <v>-1</v>
-      </c>
-      <c r="AH67">
-        <v>0</v>
-      </c>
-      <c r="AI67">
-        <v>0</v>
-      </c>
-      <c r="AJ67">
-        <v>-3.983814</v>
-      </c>
-      <c r="AK67">
-        <v>-3.98</v>
-      </c>
-      <c r="AL67" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="68" spans="1:38">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68">
-        <v>91</v>
-      </c>
-      <c r="C68" t="s">
-        <v>37</v>
-      </c>
-      <c r="D68" t="s">
-        <v>38</v>
-      </c>
-      <c r="E68">
-        <v>41</v>
-      </c>
-      <c r="F68" t="s">
-        <v>39</v>
-      </c>
-      <c r="G68">
-        <v>92</v>
-      </c>
-      <c r="H68" t="s">
-        <v>40</v>
-      </c>
-      <c r="I68">
-        <v>9712</v>
-      </c>
-      <c r="J68" t="s">
-        <v>41</v>
-      </c>
-      <c r="K68">
-        <v>2090182</v>
-      </c>
-      <c r="L68" t="s">
-        <v>107</v>
-      </c>
-      <c r="M68" t="s">
-        <v>145</v>
-      </c>
-      <c r="N68">
-        <v>7</v>
-      </c>
-      <c r="O68" t="s">
-        <v>155</v>
-      </c>
-      <c r="P68">
-        <v>71</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>165</v>
-      </c>
-      <c r="R68" t="s">
-        <v>232</v>
-      </c>
-      <c r="S68" t="s">
-        <v>298</v>
-      </c>
-      <c r="T68">
-        <v>5.131129125</v>
-      </c>
-      <c r="U68" t="s">
-        <v>302</v>
-      </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
-      <c r="W68" t="s">
-        <v>302</v>
-      </c>
-      <c r="X68" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z68">
-        <v>0</v>
-      </c>
-      <c r="AA68" t="s">
-        <v>315</v>
-      </c>
-      <c r="AB68" t="s">
-        <v>319</v>
-      </c>
-      <c r="AC68" t="s">
-        <v>325</v>
-      </c>
-      <c r="AD68" t="s">
-        <v>329</v>
-      </c>
-      <c r="AE68">
-        <v>0</v>
-      </c>
-      <c r="AF68">
-        <v>0</v>
-      </c>
-      <c r="AG68">
-        <v>-1</v>
-      </c>
-      <c r="AH68">
-        <v>0</v>
-      </c>
-      <c r="AI68">
-        <v>0</v>
-      </c>
-      <c r="AJ68">
-        <v>-5.131129125</v>
-      </c>
-      <c r="AK68">
-        <v>-6.84</v>
-      </c>
-      <c r="AL68" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="69" spans="1:38">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <v>91</v>
-      </c>
-      <c r="C69" t="s">
-        <v>37</v>
-      </c>
-      <c r="D69" t="s">
-        <v>38</v>
-      </c>
-      <c r="E69">
-        <v>41</v>
-      </c>
-      <c r="F69" t="s">
-        <v>39</v>
-      </c>
-      <c r="G69">
-        <v>92</v>
-      </c>
-      <c r="H69" t="s">
-        <v>40</v>
-      </c>
-      <c r="I69">
-        <v>9712</v>
-      </c>
-      <c r="J69" t="s">
-        <v>41</v>
-      </c>
-      <c r="K69">
-        <v>2090137</v>
-      </c>
-      <c r="L69" t="s">
-        <v>108</v>
-      </c>
-      <c r="M69" t="s">
-        <v>151</v>
-      </c>
-      <c r="N69">
-        <v>7</v>
-      </c>
-      <c r="O69" t="s">
-        <v>155</v>
-      </c>
-      <c r="P69">
-        <v>72</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>163</v>
-      </c>
-      <c r="R69" t="s">
-        <v>233</v>
-      </c>
-      <c r="S69" t="s">
-        <v>299</v>
-      </c>
-      <c r="T69">
-        <v>5.419725375000001</v>
-      </c>
-      <c r="U69" t="s">
-        <v>302</v>
-      </c>
-      <c r="V69">
-        <v>0</v>
-      </c>
-      <c r="W69" t="s">
-        <v>302</v>
-      </c>
-      <c r="X69" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z69">
-        <v>0</v>
-      </c>
-      <c r="AA69" t="s">
-        <v>315</v>
-      </c>
-      <c r="AB69" t="s">
-        <v>319</v>
-      </c>
-      <c r="AC69" t="s">
-        <v>326</v>
-      </c>
-      <c r="AD69" t="s">
-        <v>330</v>
-      </c>
-      <c r="AE69">
-        <v>0</v>
-      </c>
-      <c r="AF69">
-        <v>0</v>
-      </c>
-      <c r="AG69">
-        <v>-5</v>
-      </c>
-      <c r="AH69">
-        <v>0</v>
-      </c>
-      <c r="AI69">
-        <v>0</v>
-      </c>
-      <c r="AJ69">
-        <v>-27.09862687500001</v>
-      </c>
-      <c r="AK69">
-        <v>-36.15</v>
-      </c>
-      <c r="AL69" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="70" spans="1:38">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70">
-        <v>91</v>
-      </c>
-      <c r="C70" t="s">
-        <v>37</v>
-      </c>
-      <c r="D70" t="s">
-        <v>38</v>
-      </c>
-      <c r="E70">
-        <v>41</v>
-      </c>
-      <c r="F70" t="s">
-        <v>39</v>
-      </c>
-      <c r="G70">
-        <v>92</v>
-      </c>
-      <c r="H70" t="s">
-        <v>40</v>
-      </c>
-      <c r="I70">
-        <v>9712</v>
-      </c>
-      <c r="J70" t="s">
-        <v>41</v>
-      </c>
-      <c r="K70">
-        <v>2094351</v>
-      </c>
-      <c r="L70" t="s">
-        <v>109</v>
-      </c>
-      <c r="M70" t="s">
-        <v>152</v>
-      </c>
-      <c r="N70">
-        <v>7</v>
-      </c>
-      <c r="O70" t="s">
-        <v>155</v>
-      </c>
-      <c r="P70">
-        <v>73</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>164</v>
-      </c>
-      <c r="R70" t="s">
-        <v>234</v>
-      </c>
-      <c r="S70" t="s">
         <v>300</v>
-      </c>
-      <c r="T70">
-        <v>6.762378999999999</v>
-      </c>
-      <c r="U70" t="s">
-        <v>302</v>
-      </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-      <c r="W70" t="s">
-        <v>302</v>
-      </c>
-      <c r="X70" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y70">
-        <v>0</v>
-      </c>
-      <c r="Z70">
-        <v>0</v>
-      </c>
-      <c r="AA70" t="s">
-        <v>315</v>
-      </c>
-      <c r="AB70" t="s">
-        <v>319</v>
-      </c>
-      <c r="AC70" t="s">
-        <v>325</v>
-      </c>
-      <c r="AD70" t="s">
-        <v>329</v>
-      </c>
-      <c r="AE70">
-        <v>0</v>
-      </c>
-      <c r="AF70">
-        <v>0</v>
-      </c>
-      <c r="AG70">
-        <v>-2</v>
-      </c>
-      <c r="AH70">
-        <v>0</v>
-      </c>
-      <c r="AI70">
-        <v>0</v>
-      </c>
-      <c r="AJ70">
-        <v>-13.524758</v>
-      </c>
-      <c r="AK70">
-        <v>-13.52</v>
-      </c>
-      <c r="AL70" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="71" spans="1:38">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <v>91</v>
-      </c>
-      <c r="C71" t="s">
-        <v>37</v>
-      </c>
-      <c r="D71" t="s">
-        <v>38</v>
-      </c>
-      <c r="E71">
-        <v>41</v>
-      </c>
-      <c r="F71" t="s">
-        <v>39</v>
-      </c>
-      <c r="G71">
-        <v>92</v>
-      </c>
-      <c r="H71" t="s">
-        <v>40</v>
-      </c>
-      <c r="I71">
-        <v>9712</v>
-      </c>
-      <c r="J71" t="s">
-        <v>41</v>
-      </c>
-      <c r="K71">
-        <v>2023535</v>
-      </c>
-      <c r="L71" t="s">
-        <v>110</v>
-      </c>
-      <c r="M71" t="s">
-        <v>153</v>
-      </c>
-      <c r="N71">
-        <v>13</v>
-      </c>
-      <c r="O71" t="s">
-        <v>156</v>
-      </c>
-      <c r="P71">
-        <v>135</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>169</v>
-      </c>
-      <c r="R71" t="s">
-        <v>235</v>
-      </c>
-      <c r="S71" t="s">
-        <v>301</v>
-      </c>
-      <c r="T71">
-        <v>12.03357142857143</v>
-      </c>
-      <c r="U71" t="s">
-        <v>302</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71" t="s">
-        <v>303</v>
-      </c>
-      <c r="X71" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y71">
-        <v>0</v>
-      </c>
-      <c r="Z71">
-        <v>0</v>
-      </c>
-      <c r="AA71">
-        <v>0</v>
-      </c>
-      <c r="AB71">
-        <v>0</v>
-      </c>
-      <c r="AC71">
-        <v>0</v>
-      </c>
-      <c r="AD71">
-        <v>0</v>
-      </c>
-      <c r="AE71">
-        <v>0</v>
-      </c>
-      <c r="AF71">
-        <v>0</v>
-      </c>
-      <c r="AG71">
-        <v>-1</v>
-      </c>
-      <c r="AH71">
-        <v>0</v>
-      </c>
-      <c r="AI71">
-        <v>0</v>
-      </c>
-      <c r="AJ71">
-        <v>-12.03357142857143</v>
-      </c>
-      <c r="AK71">
-        <v>-12.98</v>
-      </c>
-      <c r="AL71" t="s">
-        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/salida/reportes_Grupo Carosa_valorizada.xlsx
+++ b/salida/reportes_Grupo Carosa_valorizada.xlsx
@@ -127,7 +127,7 @@
     <t>COMPAÑÍA</t>
   </si>
   <si>
-    <t>Abr 2019</t>
+    <t>Abr. 19</t>
   </si>
   <si>
     <t>201904</t>
